--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project04\WebContent\발표자료\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="11715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22545" windowHeight="11715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="전현규" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="최민기" sheetId="3" r:id="rId3"/>
     <sheet name="김형준" sheetId="4" r:id="rId4"/>
     <sheet name="통합본" sheetId="5" r:id="rId5"/>
+    <sheet name="통합본 Ver2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="339">
   <si>
     <t>구분</t>
   </si>
@@ -1033,6 +1034,1440 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개설할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원데이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양식에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스트</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 조회</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거절하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토어에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매등록한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 신청한 클래스의 상태, 클래스 신청자 정보를 조회하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일부를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1041,7 +2476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd\ h:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1108,6 +2543,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1203,7 +2653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,6 +2764,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,9 +2789,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1604,11 +3084,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:10" ht="12.75">
+      <c r="A2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1621,9 +3101,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+    <row r="3" spans="1:10" ht="12.75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1634,9 +3114,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+    <row r="4" spans="1:10" ht="12.75">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1647,9 +3127,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="41"/>
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="1:10" ht="12.75">
+      <c r="A5" s="47"/>
+      <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1662,9 +3142,9 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+    <row r="6" spans="1:10" ht="12.75">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1675,8 +3155,8 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:10" ht="12.75">
+      <c r="A7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1692,9 +3172,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="41"/>
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:10" ht="12.75">
+      <c r="A8" s="47"/>
+      <c r="B8" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1707,9 +3187,9 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+    <row r="9" spans="1:10" ht="12.75">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1720,9 +3200,9 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:10" ht="12.75">
+      <c r="A10" s="47"/>
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1735,9 +3215,9 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+    <row r="11" spans="1:10" ht="12.75">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1748,9 +3228,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+    <row r="12" spans="1:10" ht="12.75">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -1761,9 +3241,9 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+    <row r="13" spans="1:10" ht="12.75">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1774,9 +3254,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="41"/>
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="A14" s="47"/>
+      <c r="B14" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1789,9 +3269,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+    <row r="15" spans="1:10" ht="12.75">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1803,8 +3283,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1816,8 +3296,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="46" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1831,8 +3311,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -1844,8 +3324,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="41"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="46" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1858,9 +3338,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+    <row r="20" spans="1:7" ht="12.75">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -1871,9 +3351,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+    <row r="21" spans="1:7" ht="12.75">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -1884,8 +3364,8 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:7" ht="12.75">
+      <c r="A22" s="46" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1901,8 +3381,8 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:7" ht="12.75">
+      <c r="A23" s="47"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1916,9 +3396,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="41"/>
-      <c r="B24" s="40" t="s">
+    <row r="24" spans="1:7" ht="12.75">
+      <c r="A24" s="47"/>
+      <c r="B24" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1931,9 +3411,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+    <row r="25" spans="1:7" ht="12.75">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -1944,9 +3424,9 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+    <row r="26" spans="1:7" ht="12.75">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -1957,9 +3437,9 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="41"/>
-      <c r="B27" s="40" t="s">
+    <row r="27" spans="1:7" ht="12.75">
+      <c r="A27" s="47"/>
+      <c r="B27" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1972,9 +3452,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+    <row r="28" spans="1:7" ht="12.75">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -1985,9 +3465,9 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+    <row r="29" spans="1:7" ht="12.75">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -1998,9 +3478,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+    <row r="30" spans="1:7" ht="12.75">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2011,9 +3491,9 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+    <row r="31" spans="1:7" ht="12.75">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -2024,9 +3504,9 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+    <row r="32" spans="1:7" ht="12.75">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -2034,9 +3514,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="41"/>
-      <c r="B33" s="40" t="s">
+    <row r="33" spans="1:4" ht="12.75">
+      <c r="A33" s="47"/>
+      <c r="B33" s="46" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2046,9 +3526,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+    <row r="34" spans="1:4" ht="12.75">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -2056,9 +3536,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+    <row r="35" spans="1:4" ht="12.75">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -2066,9 +3546,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+    <row r="36" spans="1:4" ht="12.75">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -2077,8 +3557,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -2087,8 +3567,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -2097,10 +3577,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="46" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2111,8 +3591,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -2121,8 +3601,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="41"/>
-      <c r="B41" s="40" t="s">
+      <c r="A41" s="47"/>
+      <c r="B41" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2133,8 +3613,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -2143,8 +3623,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="41"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="46" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -2155,8 +3635,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -2165,8 +3645,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="41"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="46" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2177,8 +3657,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -2187,8 +3667,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="41"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="47"/>
+      <c r="B47" s="46" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2199,8 +3679,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -2209,8 +3689,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -2219,8 +3699,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -2236,6 +3716,9 @@
     <mergeCell ref="A7:A21"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -2244,9 +3727,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A22:A38"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
   </mergeCells>
@@ -2271,7 +3751,7 @@
     <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +3780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2318,9 +3798,9 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
@@ -2334,9 +3814,9 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
       <c r="B4" s="21" t="s">
         <v>11</v>
@@ -2353,7 +3833,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="22" t="s">
@@ -2368,7 +3848,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="22" t="s">
@@ -2539,7 +4019,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="21" t="s">
         <v>166</v>
       </c>
@@ -2558,7 +4038,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="22" t="s">
@@ -2573,7 +4053,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>198</v>
@@ -2590,7 +4070,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="22" t="s">
@@ -2605,7 +4085,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>107</v>
@@ -2622,7 +4102,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="22" t="s">
@@ -2637,7 +4117,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
         <v>211</v>
@@ -2654,7 +4134,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="22" t="s">
@@ -2669,7 +4149,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="22" t="s">
@@ -2684,7 +4164,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="21" t="s">
         <v>96</v>
       </c>
@@ -2703,7 +4183,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="24"/>
       <c r="B25" s="21" t="s">
         <v>102</v>
@@ -2720,7 +4200,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="22" t="s">
@@ -2735,7 +4215,7 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="14.25">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>107</v>
@@ -2752,7 +4232,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="22" t="s">
@@ -2767,7 +4247,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="24"/>
       <c r="B29" s="21" t="s">
         <v>235</v>
@@ -2784,7 +4264,7 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="24"/>
       <c r="B30" s="21" t="s">
         <v>242</v>
@@ -2801,7 +4281,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="14.25">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="22" t="s">
@@ -2888,11 +4368,11 @@
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:25" ht="12.75">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -2923,9 +4403,9 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+    <row r="3" spans="1:25" ht="12.75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -2954,9 +4434,9 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+    <row r="4" spans="1:25" ht="24.75">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -2985,8 +4465,8 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:25" ht="12.75">
+      <c r="A5" s="47"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -3018,11 +4498,11 @@
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:25" ht="12.75">
+      <c r="A6" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="49" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -3053,9 +4533,9 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+    <row r="7" spans="1:25" ht="24.75">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -3084,9 +4564,9 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+    <row r="8" spans="1:25" ht="24.75">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -3115,9 +4595,9 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+    <row r="9" spans="1:25" ht="12.75">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -3146,9 +4626,9 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:25" ht="12.75">
+      <c r="A10" s="47"/>
+      <c r="B10" s="49" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -3179,9 +4659,9 @@
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+    <row r="11" spans="1:25" ht="24.75">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -3210,9 +4690,9 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+    <row r="12" spans="1:25" ht="24.75">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -3241,9 +4721,9 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+    <row r="13" spans="1:25" ht="12.75">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -3272,8 +4752,8 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:25" ht="12.75">
+      <c r="A14" s="47"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -3305,11 +4785,11 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:25" ht="12.75">
+      <c r="A15" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -3340,9 +4820,9 @@
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+    <row r="16" spans="1:25" ht="12.75">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -3371,9 +4851,9 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+    <row r="17" spans="1:25" ht="12.75">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -3402,9 +4882,9 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+    <row r="18" spans="1:25" ht="12.75">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -3433,8 +4913,8 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:25" ht="12.75">
+      <c r="A19" s="47"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -3466,8 +4946,8 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:25" ht="12.75">
+      <c r="A20" s="47"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -3499,8 +4979,8 @@
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:25" ht="12.75">
+      <c r="A21" s="49" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -3534,8 +5014,8 @@
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="41"/>
+    <row r="22" spans="1:25" ht="12.75">
+      <c r="A22" s="47"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -3567,8 +5047,8 @@
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="43" t="s">
+    <row r="23" spans="1:25" ht="12.75">
+      <c r="A23" s="49" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3602,9 +5082,9 @@
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="1:25" ht="12.75">
+      <c r="A24" s="47"/>
+      <c r="B24" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -3635,9 +5115,9 @@
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+    <row r="25" spans="1:25" ht="12.75">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -3666,9 +5146,9 @@
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+    <row r="26" spans="1:25" ht="12.75">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -3697,11 +5177,11 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="43" t="s">
+    <row r="27" spans="1:25" ht="12.75">
+      <c r="A27" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="49" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -3732,9 +5212,9 @@
       <c r="X27" s="18"/>
       <c r="Y27" s="18"/>
     </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+    <row r="28" spans="1:25" ht="12.75">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -3763,9 +5243,9 @@
       <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43" t="s">
+    <row r="29" spans="1:25" ht="12.75">
+      <c r="A29" s="47"/>
+      <c r="B29" s="49" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -3796,9 +5276,9 @@
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
     </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+    <row r="30" spans="1:25" ht="12.75">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -3827,9 +5307,9 @@
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
     </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="43" t="s">
+    <row r="31" spans="1:25" ht="12.75">
+      <c r="A31" s="47"/>
+      <c r="B31" s="49" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -3860,9 +5340,9 @@
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
     </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+    <row r="32" spans="1:25" ht="12.75">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -3891,7 +5371,7 @@
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" ht="12.75">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="34"/>
@@ -3918,7 +5398,7 @@
       <c r="X33" s="18"/>
       <c r="Y33" s="18"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" ht="12.75">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="34"/>
@@ -3945,7 +5425,7 @@
       <c r="X34" s="18"/>
       <c r="Y34" s="18"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" ht="12.75">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="34"/>
@@ -3972,7 +5452,7 @@
       <c r="X35" s="18"/>
       <c r="Y35" s="18"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" ht="12.75">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="34"/>
@@ -30088,10 +31568,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="50" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -30108,8 +31588,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -30124,8 +31604,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -30140,8 +31620,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="45"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -30158,8 +31638,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -30174,10 +31654,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="50" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -30194,8 +31674,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -30210,8 +31690,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -30226,8 +31706,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="45"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="50" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -30244,8 +31724,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -30260,8 +31740,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -30276,8 +31756,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="45"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="50" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -30294,8 +31774,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -30310,8 +31790,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -30326,8 +31806,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -30344,8 +31824,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -30360,8 +31840,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -30376,8 +31856,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -30392,10 +31872,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="50" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -30412,8 +31892,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -30428,8 +31908,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -30444,8 +31924,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -30460,10 +31940,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="50" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -30480,8 +31960,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -30496,8 +31976,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="45"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -30512,8 +31992,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -30526,8 +32006,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -30540,8 +32020,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -30554,8 +32034,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -30570,7 +32050,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="45"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -30588,7 +32068,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="46"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -30627,13 +32107,13 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30645,10 +32125,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30694,11 +32174,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:10" ht="12.75">
+      <c r="A2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -30709,13 +32189,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+    <row r="3" spans="1:10" ht="12.75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -30724,11 +32204,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -30737,11 +32217,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="41"/>
-      <c r="B5" s="40" t="s">
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75">
+      <c r="A5" s="47"/>
+      <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -30752,11 +32232,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -30765,11 +32245,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -30778,13 +32258,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="41"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -30795,13 +32275,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -30810,11 +32290,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="41"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -30823,11 +32303,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="41"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -30836,11 +32316,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="41"/>
-      <c r="B12" s="40" t="s">
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -30851,11 +32331,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -30864,11 +32344,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -30877,11 +32357,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -30890,11 +32370,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -30903,26 +32383,26 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="41"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="41"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="42" t="s">
         <v>314</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.75">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -30931,11 +32411,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -30944,11 +32424,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="41"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="41"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -30959,11 +32439,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.75">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -30972,11 +32452,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -30985,420 +32465,1240 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="40" t="s">
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
+      <c r="A23" s="46"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75">
+      <c r="A24" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B24" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D24" s="38" t="s">
         <v>304</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="41"/>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="G24" s="46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40" t="s">
-        <v>65</v>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.75">
+      <c r="A26" s="47"/>
+      <c r="B26" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.75">
+      <c r="A27" s="47"/>
+      <c r="B27" s="46" t="s">
+        <v>65</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="41"/>
-      <c r="B29" s="40" t="s">
-        <v>72</v>
-      </c>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="40" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.75">
+      <c r="A30" s="47"/>
+      <c r="B30" s="46" t="s">
+        <v>72</v>
+      </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="G30" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="4" t="s">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="4" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.75">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="8" t="s">
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="41"/>
-      <c r="B35" s="40" t="s">
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75">
+      <c r="A36" s="47"/>
+      <c r="B36" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="4" t="s">
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.75">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="4" t="s">
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" ht="12.75">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G37" s="41"/>
-    </row>
-    <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="4" t="s">
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" ht="12.75">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="41"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="4" t="s">
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" ht="12.75">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="4" t="s">
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.75">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="41"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="40" t="s">
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.75">
+      <c r="A42" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B42" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G42" s="46" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="4" t="s">
+    <row r="43" spans="1:7" ht="12.75">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="41"/>
-    </row>
-    <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="41"/>
-      <c r="B43" s="40" t="s">
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" ht="12.75">
+      <c r="A44" s="47"/>
+      <c r="B44" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="41"/>
-    </row>
-    <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="4" t="s">
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" ht="12.75">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="41"/>
-    </row>
-    <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="41"/>
-      <c r="B45" s="40" t="s">
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="1:7" ht="12.75">
+      <c r="A46" s="47"/>
+      <c r="B46" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="41"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="4" t="s">
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" ht="12.75">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G46" s="41"/>
-    </row>
-    <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="41"/>
-      <c r="B47" s="40" t="s">
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" ht="12.75">
+      <c r="A48" s="47"/>
+      <c r="B48" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G47" s="41"/>
-    </row>
-    <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="4" t="s">
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="1:12" ht="12.75">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="41"/>
-    </row>
-    <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="41"/>
-      <c r="B49" s="40" t="s">
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="1:12" ht="12.75">
+      <c r="A50" s="47"/>
+      <c r="B50" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G49" s="41"/>
-    </row>
-    <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="4" t="s">
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:12" ht="12.75">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="41"/>
-    </row>
-    <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="8" t="s">
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:12" ht="12.75">
+      <c r="A52" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D52" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="8" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A22"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="G8:G22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="G23:G28"/>
-    <mergeCell ref="G29:G40"/>
-    <mergeCell ref="G41:G50"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A8:A23"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15" style="41" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="41" customWidth="1"/>
+    <col min="7" max="9" width="14.42578125" style="41"/>
+    <col min="10" max="10" width="15.140625" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="A22" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
+      <c r="A36" s="47"/>
+      <c r="B36" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1">
+      <c r="A42" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1">
+      <c r="A45" s="47"/>
+      <c r="B45" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="47"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="47"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="A51" s="47"/>
+      <c r="B51" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="A53" s="47"/>
+      <c r="B53" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="47"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="A55" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="G8:G21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="G42:G54"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A22:A41"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="B36:B41"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project04\WebContent\발표자료\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project04\WebContent\발표자료\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2473,8 +2473,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -2653,7 +2654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2769,11 +2770,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2792,22 +2797,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3085,10 +3098,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3102,8 +3115,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3115,8 +3128,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3128,8 +3141,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3143,8 +3156,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3156,7 +3169,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3173,8 +3186,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="47"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3188,8 +3201,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3201,8 +3214,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3216,8 +3229,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3229,8 +3242,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3242,8 +3255,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3255,8 +3268,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3270,8 +3283,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -3283,8 +3296,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -3296,8 +3309,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3311,8 +3324,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -3324,8 +3337,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="47"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3339,8 +3352,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3352,8 +3365,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -3365,7 +3378,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3382,7 +3395,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="47"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -3397,8 +3410,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="47"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="48" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3412,8 +3425,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -3425,8 +3438,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3438,8 +3451,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="47"/>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="48" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3453,8 +3466,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -3466,8 +3479,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -3479,8 +3492,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -3492,8 +3505,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -3505,8 +3518,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -3515,8 +3528,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="47"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3527,8 +3540,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -3537,8 +3550,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3547,8 +3560,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3557,8 +3570,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -3567,8 +3580,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -3577,10 +3590,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3591,8 +3604,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -3601,8 +3614,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="47"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="49"/>
+      <c r="B41" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3613,8 +3626,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -3623,8 +3636,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="47"/>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3635,8 +3648,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -3645,8 +3658,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="47"/>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="49"/>
+      <c r="B45" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3657,8 +3670,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -3667,8 +3680,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="47"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3679,8 +3692,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -3689,8 +3702,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -3699,8 +3712,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3710,15 +3723,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -3729,6 +3733,15 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,7 +3811,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="48"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -3814,7 +3827,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="47"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -4369,10 +4382,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4404,8 +4417,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -4435,8 +4448,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -4466,7 +4479,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -4499,10 +4512,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -4534,8 +4547,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -4565,8 +4578,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -4596,8 +4609,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -4627,8 +4640,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="51" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -4660,8 +4673,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -4691,8 +4704,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -4722,8 +4735,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -4753,7 +4766,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -4786,10 +4799,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="51" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -4821,8 +4834,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -4852,8 +4865,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -4883,8 +4896,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -4914,7 +4927,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="47"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -4947,7 +4960,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -4980,7 +4993,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -5015,7 +5028,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -5048,7 +5061,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5083,8 +5096,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="47"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="51" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -5116,8 +5129,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -5147,8 +5160,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -5178,10 +5191,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="51" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5213,8 +5226,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -5244,8 +5257,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="51" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -5277,8 +5290,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -5308,8 +5321,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="47"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="51" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -5341,8 +5354,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -31482,6 +31495,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A2:A5"/>
@@ -31489,13 +31509,6 @@
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -31568,10 +31581,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -31588,8 +31601,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -31604,8 +31617,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -31620,8 +31633,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="51"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -31638,8 +31651,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -31654,10 +31667,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -31674,8 +31687,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -31690,8 +31703,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -31706,8 +31719,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="51"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="52" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -31724,8 +31737,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -31740,8 +31753,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -31756,8 +31769,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="51"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -31774,8 +31787,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -31790,8 +31803,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -31806,8 +31819,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="52" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -31824,8 +31837,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -31840,8 +31853,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -31856,8 +31869,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -31872,10 +31885,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="52" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -31892,8 +31905,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -31908,8 +31921,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -31924,8 +31937,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -31940,10 +31953,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="52" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -31960,8 +31973,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -31976,8 +31989,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="51"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="52" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -31992,8 +32005,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -32006,8 +32019,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -32020,8 +32033,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -32034,8 +32047,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -32050,7 +32063,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -32068,7 +32081,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="52"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -32101,6 +32114,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -32109,11 +32127,6 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32175,10 +32188,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -32189,13 +32202,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="48" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -32204,11 +32217,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="47"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -32217,11 +32230,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -32232,11 +32245,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="47"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -32245,11 +32258,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="47"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -32258,13 +32271,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="47"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -32275,13 +32288,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="48" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -32290,11 +32303,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="47"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -32303,11 +32316,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="47"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -32316,11 +32329,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="47"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -32331,11 +32344,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="47"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -32344,11 +32357,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="47"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -32357,11 +32370,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -32370,11 +32383,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="47"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -32383,11 +32396,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -32398,11 +32411,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -32411,11 +32424,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -32424,11 +32437,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="47"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -32439,11 +32452,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="47"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -32452,11 +32465,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -32465,20 +32478,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="47"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="46"/>
+      <c r="A23" s="48"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="48" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -32489,13 +32502,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="48" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -32504,10 +32517,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="47"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="47"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -32519,11 +32532,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="47"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="47"/>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="48" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -32534,11 +32547,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="47"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -32547,11 +32560,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="47"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -32560,11 +32573,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="47"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="47"/>
-      <c r="B30" s="46" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="48" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -32575,13 +32588,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="48" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -32590,11 +32603,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="47"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -32603,11 +32616,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="47"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -32616,11 +32629,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="47"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -32629,22 +32642,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="47"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="47"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -32653,68 +32666,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="47"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="47"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="47"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="47"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -32723,24 +32736,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="48" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="47"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="47"/>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="49"/>
+      <c r="B44" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -32749,22 +32762,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="47"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="47"/>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="49"/>
+      <c r="B46" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -32773,22 +32786,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="47"/>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="48" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -32797,22 +32810,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="47"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="47"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="47"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -32821,18 +32834,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="47"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -32860,11 +32873,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -32875,15 +32892,11 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32899,7 +32912,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32915,763 +32928,1028 @@
     <col min="11" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:10" s="47" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="60" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="46" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="48" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="40" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="40" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="57"/>
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="40" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="45" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="40" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="46" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="48" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="40" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="40" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="40" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="45" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="40" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="40" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="48"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="44" t="s">
         <v>334</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="40" t="s">
+      <c r="E15" s="45"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="48"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="45" t="s">
         <v>300</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="40" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="48"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="45" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="40" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="53" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="55" t="s">
         <v>319</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="55" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="46" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="45"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="48" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="40" t="s">
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="45" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="40" t="s">
+      <c r="E23" s="45"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="46" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="40" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="45" t="s">
+      <c r="E26" s="45"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="44" t="s">
         <v>315</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="45" t="s">
+      <c r="E27" s="45"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="44" t="s">
         <v>316</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="40" t="s">
+      <c r="E28" s="45"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="46" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="57"/>
+      <c r="B30" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="45" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="46" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="48" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="40" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="45" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="40" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="45" t="s">
         <v>306</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="45" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="44" t="s">
         <v>322</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="40" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="45" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="39" t="s">
+      <c r="E34" s="45"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="46" t="s">
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="57"/>
+      <c r="B36" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="40" t="s">
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="40" t="s">
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="40" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="40" t="s">
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="47"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="40" t="s">
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="47"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="46" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+    </row>
+    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="E42" s="63">
+        <v>43901</v>
+      </c>
+      <c r="F42" s="61">
+        <v>1</v>
+      </c>
+      <c r="G42" s="48" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="45" t="s">
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+    </row>
+    <row r="43" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="40" t="s">
+      <c r="E43" s="63">
+        <v>43903</v>
+      </c>
+      <c r="F43" s="62">
+        <v>2</v>
+      </c>
+      <c r="G43" s="48"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="47"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="46" t="s">
+      <c r="E44" s="63">
+        <v>43903</v>
+      </c>
+      <c r="F44" s="62">
+        <v>2</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+    </row>
+    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="57"/>
+      <c r="B45" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="G45" s="47"/>
-    </row>
-    <row r="46" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="45" t="s">
+      <c r="E45" s="63">
+        <v>43901</v>
+      </c>
+      <c r="F45" s="61">
+        <v>1</v>
+      </c>
+      <c r="G45" s="57"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+    </row>
+    <row r="46" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="57"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="G46" s="47"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="45" t="s">
+      <c r="E46" s="63">
+        <v>43903</v>
+      </c>
+      <c r="F46" s="62">
+        <v>2</v>
+      </c>
+      <c r="G46" s="57"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="G47" s="47"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="46" t="s">
+      <c r="E47" s="63">
+        <v>43908</v>
+      </c>
+      <c r="F47" s="62">
+        <v>2</v>
+      </c>
+      <c r="G47" s="57"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="57"/>
+      <c r="B48" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="47"/>
-    </row>
-    <row r="49" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="45" t="s">
+      <c r="E48" s="63">
+        <v>43901</v>
+      </c>
+      <c r="F48" s="61">
+        <v>1</v>
+      </c>
+      <c r="G48" s="57"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+    </row>
+    <row r="49" spans="1:12" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="57"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="G49" s="47"/>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="40" t="s">
+      <c r="E49" s="63">
+        <v>43908</v>
+      </c>
+      <c r="F49" s="62">
+        <v>2</v>
+      </c>
+      <c r="G49" s="57"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="46" t="s">
+      <c r="E50" s="63">
+        <v>43908</v>
+      </c>
+      <c r="F50" s="62">
+        <v>2</v>
+      </c>
+      <c r="G50" s="57"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A51" s="57"/>
+      <c r="B51" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="40" t="s">
+      <c r="E51" s="63">
+        <v>43903</v>
+      </c>
+      <c r="F51" s="62">
+        <v>2</v>
+      </c>
+      <c r="G51" s="57"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="46" t="s">
+      <c r="E52" s="63">
+        <v>43908</v>
+      </c>
+      <c r="F52" s="62">
+        <v>3</v>
+      </c>
+      <c r="G52" s="57"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A53" s="57"/>
+      <c r="B53" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="40" t="s">
+      <c r="E53" s="63">
+        <v>43903</v>
+      </c>
+      <c r="F53" s="62">
+        <v>3</v>
+      </c>
+      <c r="G53" s="57"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="39" t="s">
+      <c r="E54" s="63">
+        <v>43908</v>
+      </c>
+      <c r="F54" s="62">
+        <v>3</v>
+      </c>
+      <c r="G54" s="57"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+    </row>
+    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A55" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39" t="s">
+      <c r="E55" s="45"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
       <c r="K55" s="39"/>
       <c r="L55" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:A41"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="G42:G54"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -33682,20 +33960,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="G8:G21"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="G42:G54"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A22:A41"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="B36:B41"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project04\WebContent\발표자료\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-15\Desktop\github\project03\project04\WebContent\발표자료\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="345">
   <si>
     <t>구분</t>
   </si>
@@ -2468,6 +2468,252 @@
     <t>기한</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2477,7 +2723,7 @@
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd\ h:mm"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2562,6 +2808,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2577,7 +2836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2650,11 +2909,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2769,15 +3221,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2794,31 +3237,139 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3098,10 +3649,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3115,8 +3666,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3128,8 +3679,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3141,8 +3692,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="49"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3156,8 +3707,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3169,7 +3720,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3186,8 +3737,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="49"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3201,8 +3752,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3214,8 +3765,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="49"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3229,8 +3780,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3242,8 +3793,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3255,8 +3806,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3268,8 +3819,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="49"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3283,8 +3834,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -3296,8 +3847,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -3309,8 +3860,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3324,8 +3875,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -3337,8 +3888,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="49"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3352,8 +3903,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3365,8 +3916,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -3378,7 +3929,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3395,7 +3946,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="49"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -3410,8 +3961,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="49"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3425,8 +3976,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -3438,8 +3989,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3451,8 +4002,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="49"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3466,8 +4017,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -3479,8 +4030,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -3492,8 +4043,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -3505,8 +4056,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -3518,8 +4069,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -3528,8 +4079,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="49"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="45" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3540,8 +4091,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -3550,8 +4101,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3560,8 +4111,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3570,8 +4121,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -3580,8 +4131,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -3590,10 +4141,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3604,8 +4155,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -3614,8 +4165,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="49"/>
-      <c r="B41" s="48" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="45" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3626,8 +4177,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -3636,8 +4187,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="49"/>
-      <c r="B43" s="48" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="45" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3648,8 +4199,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -3658,8 +4209,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="49"/>
-      <c r="B45" s="48" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="45" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3670,8 +4221,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -3680,8 +4231,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="49"/>
-      <c r="B47" s="48" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="45" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3692,8 +4243,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -3702,8 +4253,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -3712,8 +4263,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3723,6 +4274,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -3733,15 +4293,6 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3811,7 +4362,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="50"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -3827,7 +4378,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="49"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -4382,10 +4933,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4417,8 +4968,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -4448,8 +4999,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -4479,7 +5030,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="49"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -4512,10 +5063,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -4547,8 +5098,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -4578,8 +5129,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -4609,8 +5160,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -4640,8 +5191,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="49"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -4673,8 +5224,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -4704,8 +5255,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -4735,8 +5286,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -4766,7 +5317,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="49"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -4799,10 +5350,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="48" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -4834,8 +5385,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -4865,8 +5416,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -4896,8 +5447,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -4927,7 +5478,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="49"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -4960,7 +5511,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="49"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -4993,7 +5544,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="48" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -5028,7 +5579,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="49"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -5061,7 +5612,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="48" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5096,8 +5647,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="49"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="48" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -5129,8 +5680,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -5160,8 +5711,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -5191,10 +5742,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="48" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5226,8 +5777,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -5257,8 +5808,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="49"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="48" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -5290,8 +5841,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -5321,8 +5872,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="49"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="48" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -5354,8 +5905,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -31495,6 +32046,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -31502,13 +32060,6 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -31581,10 +32132,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -31601,8 +32152,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -31617,8 +32168,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -31633,8 +32184,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="53"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -31651,8 +32202,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -31667,10 +32218,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -31687,8 +32238,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -31703,8 +32254,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -31719,8 +32270,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="53"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="49" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -31737,8 +32288,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -31753,8 +32304,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -31769,8 +32320,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="49" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -31787,8 +32338,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -31803,8 +32354,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -31819,8 +32370,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="53"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -31837,8 +32388,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -31853,8 +32404,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -31869,8 +32420,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -31885,10 +32436,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -31905,8 +32456,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -31921,8 +32472,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -31937,8 +32488,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -31953,10 +32504,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="49" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -31973,8 +32524,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -31989,8 +32540,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="53"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -32005,8 +32556,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -32019,8 +32570,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -32033,8 +32584,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -32047,8 +32598,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -32063,7 +32614,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="53"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -32081,7 +32632,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="54"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -32114,11 +32665,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -32127,6 +32673,11 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32188,10 +32739,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -32202,13 +32753,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="45" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -32217,11 +32768,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="49"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -32230,11 +32781,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="49"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -32245,11 +32796,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="49"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -32258,11 +32809,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="49"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -32271,13 +32822,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="49"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -32288,13 +32839,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="45" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -32303,11 +32854,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -32316,11 +32867,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="49"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -32329,11 +32880,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -32344,11 +32895,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -32357,11 +32908,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="49"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -32370,11 +32921,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="49"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -32383,11 +32934,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="49"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -32396,11 +32947,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="49"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -32411,11 +32962,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="49"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -32424,11 +32975,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -32437,11 +32988,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="49"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -32452,11 +33003,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="49"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -32465,11 +33016,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="49"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -32478,20 +33029,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="49"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="48"/>
+      <c r="A23" s="45"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="45" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -32502,13 +33053,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="48" t="s">
+      <c r="G24" s="45" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -32517,10 +33068,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="49"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="49"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -32532,11 +33083,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="49"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="49"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -32547,11 +33098,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="49"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -32560,11 +33111,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="49"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -32573,11 +33124,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="49"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="49"/>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -32588,13 +33139,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="45" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -32603,11 +33154,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="49"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -32616,11 +33167,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="49"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -32629,11 +33180,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="49"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -32642,22 +33193,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="49"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="49"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="49"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="45" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -32666,68 +33217,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="49"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="49"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="49"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="49"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="49"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -32736,24 +33287,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="45" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="49"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="49"/>
-      <c r="B44" s="48" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="45" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -32762,22 +33313,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="49"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="49"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="49"/>
-      <c r="B46" s="48" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="45" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -32786,22 +33337,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="49"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="49"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="49"/>
-      <c r="B48" s="48" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="45" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -32810,22 +33361,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="49"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="49"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="49"/>
-      <c r="B50" s="48" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="45" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -32834,18 +33385,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="49"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="49"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -32873,15 +33424,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -32892,11 +33439,15 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32911,8 +33462,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32928,1028 +33479,1062 @@
     <col min="11" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="47" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="65" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="48" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="57"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="57"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="57"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="57"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="57"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="57"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="57"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="57"/>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="57"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="45" t="s">
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="48" t="s">
+      <c r="E8" s="68"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="57"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="48"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="57"/>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="48"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="57"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="48"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="57"/>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="48"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="57"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="48"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="57"/>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="48"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="J15" s="74"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="57"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="48"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="57"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="48"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
+      <c r="J18" s="74"/>
     </row>
     <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="57"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="48"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="48"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="46" t="s">
+      <c r="J20" s="74"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="86" t="s">
         <v>333</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="48" t="s">
+      <c r="E22" s="68"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="57"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="57"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="23"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="57"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="57"/>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="J24" s="74"/>
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="23"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="57"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="57"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="57"/>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="57"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="57"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="57"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="J27" s="74"/>
     </row>
     <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="57"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="57"/>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="57"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
+      <c r="J28" s="74"/>
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="57"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="57"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="57"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="73"/>
+      <c r="B30" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="48" t="s">
+      <c r="E30" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="55">
+        <v>1</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>305</v>
       </c>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="J30" s="74"/>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="57"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="57"/>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="55">
+        <v>1</v>
+      </c>
       <c r="G31" s="57"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="57"/>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="F32" s="55">
+        <v>1</v>
+      </c>
       <c r="G32" s="57"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
+      <c r="J32" s="74"/>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="57"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="57"/>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="F33" s="55">
+        <v>1</v>
+      </c>
       <c r="G33" s="57"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="57"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="57"/>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="23"/>
+      <c r="E34" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="F34" s="55">
+        <v>1</v>
+      </c>
       <c r="G34" s="57"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="57"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="57"/>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="E35" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="56">
+        <v>1</v>
+      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="E36" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" s="56">
+        <v>2</v>
+      </c>
       <c r="G36" s="57"/>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="57"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="57"/>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="E37" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37" s="56">
+        <v>2</v>
+      </c>
       <c r="G37" s="57"/>
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="57"/>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="E38" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="F38" s="56">
+        <v>2</v>
+      </c>
       <c r="G38" s="57"/>
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="57"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="57"/>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="E39" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="F39" s="56">
+        <v>2</v>
+      </c>
       <c r="G39" s="57"/>
       <c r="H39" s="56"/>
       <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="57"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="57"/>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="E40" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F40" s="56">
+        <v>2</v>
+      </c>
       <c r="G40" s="57"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="45" t="s">
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
+      <c r="E41" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" s="80">
+        <v>2</v>
+      </c>
+      <c r="G41" s="76"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="63">
+      <c r="E42" s="88">
         <v>43901</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="89">
         <v>1</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="44" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E43" s="62">
         <v>43903</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="64">
         <v>2</v>
       </c>
-      <c r="G43" s="48"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="57"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="57"/>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="63">
+      <c r="E44" s="62">
         <v>43903</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="64">
         <v>2</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="48" t="s">
+      <c r="A45" s="73"/>
+      <c r="B45" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="E45" s="63">
+      <c r="E45" s="62">
         <v>43901</v>
       </c>
-      <c r="F45" s="61">
+      <c r="F45" s="63">
         <v>1</v>
       </c>
       <c r="G45" s="57"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="57"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="44" t="s">
+      <c r="A46" s="73"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="63">
+      <c r="E46" s="62">
         <v>43903</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="64">
         <v>2</v>
       </c>
       <c r="G46" s="57"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="57"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="57"/>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="63">
+      <c r="E47" s="62">
         <v>43908</v>
       </c>
-      <c r="F47" s="62">
+      <c r="F47" s="64">
         <v>2</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="56"/>
       <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
+      <c r="J47" s="74"/>
     </row>
     <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="48" t="s">
+      <c r="A48" s="73"/>
+      <c r="B48" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="63">
+      <c r="E48" s="62">
         <v>43901</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="63">
         <v>1</v>
       </c>
       <c r="G48" s="57"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="1:12" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="57"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="44" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="E49" s="63">
+      <c r="E49" s="62">
         <v>43908</v>
       </c>
-      <c r="F49" s="62">
+      <c r="F49" s="64">
         <v>2</v>
       </c>
       <c r="G49" s="57"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
+      <c r="J49" s="74"/>
     </row>
     <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="57"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="57"/>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="63">
+      <c r="E50" s="62">
         <v>43908</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="64">
         <v>2</v>
       </c>
       <c r="G50" s="57"/>
       <c r="H50" s="56"/>
       <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
+      <c r="J50" s="74"/>
     </row>
     <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="57"/>
-      <c r="B51" s="48" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="63">
+      <c r="E51" s="62">
         <v>43903</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="64">
         <v>2</v>
       </c>
       <c r="G51" s="57"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
+      <c r="J51" s="74"/>
     </row>
     <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="57"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="57"/>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="63">
+      <c r="E52" s="62">
         <v>43908</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="64">
         <v>3</v>
       </c>
       <c r="G52" s="57"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
+      <c r="J52" s="74"/>
     </row>
     <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A53" s="57"/>
-      <c r="B53" s="48" t="s">
+      <c r="A53" s="73"/>
+      <c r="B53" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="63">
+      <c r="E53" s="62">
         <v>43903</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="64">
         <v>3</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="45" t="s">
+      <c r="J53" s="74"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A54" s="75"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="63">
+      <c r="E54" s="90">
         <v>43908</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="91">
         <v>3</v>
       </c>
-      <c r="G54" s="57"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-    </row>
-    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A55" s="45" t="s">
+      <c r="G54" s="76"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="81"/>
+    </row>
+    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A55" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="45" t="s">
+      <c r="E55" s="93"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="96"/>
       <c r="K55" s="39"/>
       <c r="L55" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:A41"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="G42:G54"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -33960,6 +34545,20 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="G8:G21"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="G42:G54"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A22:A41"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="B36:B41"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-15\Desktop\github\project03\project04\WebContent\발표자료\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project04\WebContent\발표자료\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="339">
   <si>
     <t>구분</t>
   </si>
@@ -2468,252 +2468,6 @@
     <t>기한</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -2723,7 +2477,7 @@
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd\ h:mm"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2813,13 +2567,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3106,7 +2853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3222,35 +2969,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3260,12 +2983,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3277,12 +2994,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3300,16 +3011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3318,20 +3020,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3341,9 +3034,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3370,6 +3060,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3649,10 +3405,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3666,8 +3422,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3679,8 +3435,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3692,8 +3448,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="46"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3707,8 +3463,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3720,7 +3476,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3737,8 +3493,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="46"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3752,8 +3508,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3765,8 +3521,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="46"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3780,8 +3536,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3793,8 +3549,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3806,8 +3562,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3819,8 +3575,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="46"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3834,8 +3590,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -3847,8 +3603,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -3860,8 +3616,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3875,8 +3631,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -3888,8 +3644,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="46"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3903,8 +3659,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3916,8 +3672,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -3929,7 +3685,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="76" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3946,7 +3702,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="46"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -3961,8 +3717,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="46"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3976,8 +3732,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -3989,8 +3745,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -4002,8 +3758,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="46"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4017,8 +3773,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -4030,8 +3786,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -4043,8 +3799,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -4056,8 +3812,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -4069,8 +3825,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -4079,8 +3835,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="46"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="76" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4091,8 +3847,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -4101,8 +3857,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -4111,8 +3867,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -4121,8 +3877,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -4131,8 +3887,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -4141,10 +3897,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="76" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4155,8 +3911,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -4165,8 +3921,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="46"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4177,8 +3933,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -4187,8 +3943,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="46"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="76" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4199,8 +3955,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -4209,8 +3965,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="46"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="76" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4221,8 +3977,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -4231,8 +3987,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="46"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="76" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4243,8 +3999,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -4253,8 +4009,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -4263,8 +4019,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -4274,15 +4030,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -4293,6 +4040,15 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4362,7 +4118,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="47"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -4378,7 +4134,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="46"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -4933,10 +4689,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="79" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4968,8 +4724,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -4999,8 +4755,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -5030,7 +4786,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="46"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -5063,10 +4819,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="79" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -5098,8 +4854,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -5129,8 +4885,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -5160,8 +4916,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -5191,8 +4947,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="79" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -5224,8 +4980,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -5255,8 +5011,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -5286,8 +5042,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -5317,7 +5073,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="46"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -5350,10 +5106,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="79" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -5385,8 +5141,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -5416,8 +5172,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -5447,8 +5203,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -5478,7 +5234,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="46"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -5511,7 +5267,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="46"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -5544,7 +5300,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="79" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -5579,7 +5335,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="46"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -5612,7 +5368,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="79" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5647,8 +5403,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="46"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="79" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -5680,8 +5436,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -5711,8 +5467,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -5742,10 +5498,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="79" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5777,8 +5533,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -5808,8 +5564,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="79" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -5841,8 +5597,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -5872,8 +5628,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="46"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="79" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -5905,8 +5661,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -32046,6 +31802,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A2:A5"/>
@@ -32053,13 +31816,6 @@
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -32132,10 +31888,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="80" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -32152,8 +31908,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -32168,8 +31924,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -32184,8 +31940,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="50"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -32202,8 +31958,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -32218,10 +31974,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="80" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -32238,8 +31994,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -32254,8 +32010,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -32270,8 +32026,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="50"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="80" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -32288,8 +32044,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -32304,8 +32060,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -32320,8 +32076,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="50"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -32338,8 +32094,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -32354,8 +32110,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -32370,8 +32126,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="50"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="80" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -32388,8 +32144,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -32404,8 +32160,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -32420,8 +32176,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -32436,10 +32192,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="80" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -32456,8 +32212,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -32472,8 +32228,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -32488,8 +32244,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -32504,10 +32260,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="80" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -32524,8 +32280,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -32540,8 +32296,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="50"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="80" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -32556,8 +32312,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -32570,8 +32326,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -32584,8 +32340,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -32598,8 +32354,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -32614,7 +32370,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="50"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -32632,7 +32388,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="51"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -32665,6 +32421,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -32673,11 +32434,6 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32739,10 +32495,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -32753,13 +32509,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="76" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -32768,11 +32524,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="46"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -32781,11 +32537,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="46"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="46"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -32796,11 +32552,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="46"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -32809,11 +32565,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="46"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -32822,13 +32578,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -32839,13 +32595,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="76" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -32854,11 +32610,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -32867,11 +32623,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -32880,11 +32636,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -32895,11 +32651,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -32908,11 +32664,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -32921,11 +32677,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -32934,11 +32690,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -32947,11 +32703,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -32962,11 +32718,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -32975,11 +32731,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -32988,11 +32744,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -33003,11 +32759,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -33016,11 +32772,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="46"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -33029,20 +32785,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="46"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="45"/>
+      <c r="A23" s="76"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="76" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -33053,13 +32809,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="76" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -33068,10 +32824,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="46"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="46"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -33083,11 +32839,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="46"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="46"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -33098,11 +32854,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="46"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -33111,11 +32867,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="46"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -33124,11 +32880,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="46"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="46"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -33139,13 +32895,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="76" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -33154,11 +32910,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="46"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -33167,11 +32923,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="46"/>
+      <c r="G32" s="77"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -33180,11 +32936,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="46"/>
+      <c r="G33" s="77"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -33193,22 +32949,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="46"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="46"/>
+      <c r="G35" s="77"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="46"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="76" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -33217,68 +32973,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="77"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="46"/>
+      <c r="G37" s="77"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="46"/>
+      <c r="G38" s="77"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="46"/>
+      <c r="G39" s="77"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="46"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="76" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -33287,24 +33043,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="G42" s="76" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="46"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -33313,22 +33069,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="46"/>
+      <c r="G44" s="77"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="77"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="46"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="46"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="76" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -33337,22 +33093,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="46"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="46"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="46"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="76" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -33361,22 +33117,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="46"/>
+      <c r="G48" s="77"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="46"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="46"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="77"/>
+      <c r="B50" s="76" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -33385,18 +33141,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="46"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="46"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -33424,11 +33180,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -33439,15 +33199,11 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33462,8 +33218,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33480,1061 +33236,1135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="53" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="67" t="s">
+      <c r="E2" s="94">
+        <v>43900</v>
+      </c>
+      <c r="F2" s="54">
+        <v>1</v>
+      </c>
+      <c r="G2" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="53" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="74"/>
+      <c r="E3" s="95">
+        <v>43900</v>
+      </c>
+      <c r="F3" s="45">
+        <v>1</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="74"/>
+      <c r="E4" s="95">
+        <v>43900</v>
+      </c>
+      <c r="F4" s="45">
+        <v>1</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="74"/>
+      <c r="E5" s="95">
+        <v>43901</v>
+      </c>
+      <c r="F5" s="45">
+        <v>1</v>
+      </c>
+      <c r="G5" s="87"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="74"/>
+      <c r="E6" s="95">
+        <v>43901</v>
+      </c>
+      <c r="F6" s="45">
+        <v>1</v>
+      </c>
+      <c r="G6" s="87"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
+      <c r="E7" s="96">
+        <v>43901</v>
+      </c>
+      <c r="F7" s="64">
+        <v>1</v>
+      </c>
+      <c r="G7" s="88"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="67" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="74"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="53" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="74"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="74"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="74"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="53" t="s">
+      <c r="A13" s="90"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="74"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="53" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="74"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="74"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="74"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="74"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="74"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="53" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="74"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="90"/>
+      <c r="B20" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="74"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="67" t="s">
+      <c r="E22" s="94">
+        <v>43902</v>
+      </c>
+      <c r="F22" s="54">
+        <v>1</v>
+      </c>
+      <c r="G22" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="74"/>
+      <c r="E23" s="95">
+        <v>43902</v>
+      </c>
+      <c r="F23" s="45">
+        <v>1</v>
+      </c>
+      <c r="G23" s="87"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="74"/>
+      <c r="E24" s="95">
+        <v>43902</v>
+      </c>
+      <c r="F24" s="45">
+        <v>1</v>
+      </c>
+      <c r="G24" s="87"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="74"/>
+      <c r="E25" s="97">
+        <v>43903</v>
+      </c>
+      <c r="F25" s="45">
+        <v>2</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="74"/>
+      <c r="E26" s="97">
+        <v>43903</v>
+      </c>
+      <c r="F26" s="45">
+        <v>2</v>
+      </c>
+      <c r="G26" s="87"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="74"/>
+      <c r="E27" s="97">
+        <v>43903</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1</v>
+      </c>
+      <c r="G27" s="87"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="74"/>
+      <c r="E28" s="97">
+        <v>43903</v>
+      </c>
+      <c r="F28" s="45">
+        <v>1</v>
+      </c>
+      <c r="G28" s="87"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="53" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="74"/>
+      <c r="E29" s="97">
+        <v>43903</v>
+      </c>
+      <c r="F29" s="45">
+        <v>2</v>
+      </c>
+      <c r="G29" s="87"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="F30" s="55">
+      <c r="E30" s="97">
+        <v>43901</v>
+      </c>
+      <c r="F30" s="45">
         <v>1</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="74"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="53" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" s="55">
+      <c r="E31" s="97">
+        <v>43902</v>
+      </c>
+      <c r="F31" s="45">
         <v>1</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="74"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="53" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="F32" s="55">
+      <c r="E32" s="97">
+        <v>43902</v>
+      </c>
+      <c r="F32" s="45">
         <v>1</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="74"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="F33" s="55">
+      <c r="E33" s="97">
+        <v>43902</v>
+      </c>
+      <c r="F33" s="45">
         <v>1</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="74"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="73"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="F34" s="55">
+      <c r="E34" s="97">
+        <v>43903</v>
+      </c>
+      <c r="F34" s="45">
         <v>1</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="74"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="73"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="53" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="F35" s="56">
+      <c r="E35" s="97">
+        <v>43903</v>
+      </c>
+      <c r="F35" s="52">
         <v>1</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="74"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="59"/>
     </row>
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="F36" s="56">
+      <c r="E36" s="98">
+        <v>43908</v>
+      </c>
+      <c r="F36" s="52">
         <v>2</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="74"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="53" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="F37" s="56">
+      <c r="E37" s="98">
+        <v>43909</v>
+      </c>
+      <c r="F37" s="52">
         <v>2</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="74"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="59"/>
     </row>
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="73"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="53" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="F38" s="56">
+      <c r="E38" s="98">
+        <v>43909</v>
+      </c>
+      <c r="F38" s="52">
         <v>2</v>
       </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="74"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="53" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="F39" s="56">
+      <c r="E39" s="98">
+        <v>43909</v>
+      </c>
+      <c r="F39" s="52">
         <v>2</v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="74"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="59"/>
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="53" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F40" s="56">
+      <c r="E40" s="98">
+        <v>43910</v>
+      </c>
+      <c r="F40" s="52">
         <v>2</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="74"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77" t="s">
+      <c r="A41" s="85"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="87" t="s">
-        <v>344</v>
-      </c>
-      <c r="F41" s="80">
+      <c r="E41" s="98">
+        <v>43910</v>
+      </c>
+      <c r="F41" s="70">
         <v>2</v>
       </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="81"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="63"/>
     </row>
     <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="67">
         <v>43901</v>
       </c>
-      <c r="F42" s="89">
+      <c r="F42" s="68">
         <v>1</v>
       </c>
-      <c r="G42" s="67" t="s">
+      <c r="G42" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="72"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="58" t="s">
+      <c r="A43" s="90"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="50">
         <v>43903</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="52">
         <v>2</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="74"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="53" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="50">
         <v>43903</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="52">
         <v>2</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="74"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="59"/>
     </row>
     <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="52" t="s">
+      <c r="A45" s="84"/>
+      <c r="B45" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="50">
         <v>43901</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="51">
         <v>1</v>
       </c>
-      <c r="G45" s="57"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="74"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="59"/>
     </row>
     <row r="46" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="58" t="s">
+      <c r="A46" s="84"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="62">
+      <c r="E46" s="50">
         <v>43903</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="52">
         <v>2</v>
       </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="74"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58" t="s">
+      <c r="A47" s="84"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="62">
+      <c r="E47" s="50">
         <v>43908</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="52">
         <v>2</v>
       </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="74"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="52" t="s">
+      <c r="A48" s="84"/>
+      <c r="B48" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="62">
+      <c r="E48" s="50">
         <v>43901</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="51">
         <v>1</v>
       </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="74"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:12" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="58" t="s">
+      <c r="A49" s="84"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="50">
         <v>43908</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="52">
         <v>2</v>
       </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="74"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="84"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="62">
+      <c r="E50" s="50">
         <v>43908</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="52">
         <v>2</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="74"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="59"/>
     </row>
     <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="52" t="s">
+      <c r="A51" s="84"/>
+      <c r="B51" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="62">
+      <c r="E51" s="50">
         <v>43903</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="52">
         <v>2</v>
       </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="74"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="59"/>
     </row>
     <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="73"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="84"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="62">
+      <c r="E52" s="50">
         <v>43908</v>
       </c>
-      <c r="F52" s="64">
+      <c r="F52" s="52">
         <v>3</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="74"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="59"/>
     </row>
     <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="52" t="s">
+      <c r="A53" s="84"/>
+      <c r="B53" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="62">
+      <c r="E53" s="50">
         <v>43903</v>
       </c>
-      <c r="F53" s="64">
+      <c r="F53" s="52">
         <v>3</v>
       </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="74"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A54" s="75"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="77" t="s">
+      <c r="A54" s="85"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="90">
+      <c r="E54" s="69">
         <v>43908</v>
       </c>
-      <c r="F54" s="91">
+      <c r="F54" s="70">
         <v>3</v>
       </c>
-      <c r="G54" s="76"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="81"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="63"/>
     </row>
     <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="71" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="94" t="s">
+      <c r="D55" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="E55" s="93"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="93" t="s">
+      <c r="E55" s="99">
+        <v>43899</v>
+      </c>
+      <c r="F55" s="74">
+        <v>1</v>
+      </c>
+      <c r="G55" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="96"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="75"/>
       <c r="K55" s="39"/>
       <c r="L55" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:A41"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="G42:G54"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -34545,20 +34375,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="G8:G21"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="G42:G54"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A22:A41"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="B36:B41"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="340">
   <si>
     <t>구분</t>
   </si>
@@ -1035,1280 +1035,28 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개설할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정규</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원데이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양식에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통해서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>호스트</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이트에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스 조회</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거절하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토어에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매등록한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 신청한 클래스의 상태, 클래스 신청자 정보를 조회하는 기능</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>비고</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록</t>
+      <t>문의 목록</t>
     </r>
     <r>
       <rPr>
@@ -2321,151 +1069,79 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
+    <t>클래스를 통해서 제작한 상품의 판매를 신청하는 기능</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이트의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일부를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
+    <t>클래스 가입 신청</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
+    <t>클래스 가입을 신청하는 기능</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>기한</t>
+    <t>회원 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청된 클래스의 목록을 조회하여 등록,거절하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 클래스를 사이트에서 삭제하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 회원정보를 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록 신청</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 상품 조회</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 판매등록한 상품의 리스트, 판매정보(구매자 현황 등)를 조회하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스트 신청</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스등록 신청, 판매상품을 관리할 수 있는 호스트 등급의 신청 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트의 가입된 회원정보 일부를 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청된 클래스의 정보를 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 삭제</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토어에 등록된 상품을 수정하는 기능</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2565,8 +1241,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2583,7 +1260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2849,11 +1526,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2969,64 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3035,31 +1679,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3077,55 +1698,127 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3405,10 +2098,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="50" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3422,8 +2115,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3435,8 +2128,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3448,8 +2141,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3463,8 +2156,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3476,7 +2169,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="50" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3493,8 +2186,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="77"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3508,8 +2201,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3521,8 +2214,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="77"/>
-      <c r="B10" s="76" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3536,8 +2229,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3549,8 +2242,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3562,8 +2255,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3575,8 +2268,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="77"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3590,8 +2283,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -3603,8 +2296,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -3616,8 +2309,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3631,8 +2324,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -3644,8 +2337,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="77"/>
-      <c r="B19" s="76" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3659,8 +2352,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3672,8 +2365,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -3685,7 +2378,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="50" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3702,7 +2395,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="77"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +2410,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="77"/>
-      <c r="B24" s="76" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3732,8 +2425,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -3745,8 +2438,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3758,8 +2451,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="77"/>
-      <c r="B27" s="76" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3773,8 +2466,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -3786,8 +2479,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -3799,8 +2492,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -3812,8 +2505,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -3825,8 +2518,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -3835,8 +2528,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="77"/>
-      <c r="B33" s="76" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="50" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3847,8 +2540,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -3857,8 +2550,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3867,8 +2560,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3877,8 +2570,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -3887,8 +2580,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -3897,10 +2590,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="50" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3911,8 +2604,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -3921,8 +2614,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="77"/>
-      <c r="B41" s="76" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="50" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3933,8 +2626,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -3943,8 +2636,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="77"/>
-      <c r="B43" s="76" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="50" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3955,8 +2648,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -3965,8 +2658,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="77"/>
-      <c r="B45" s="76" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3977,8 +2670,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -3987,8 +2680,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="77"/>
-      <c r="B47" s="76" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="50" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3999,8 +2692,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -4009,8 +2702,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -4019,8 +2712,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -4030,6 +2723,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -4040,15 +2742,6 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4118,7 +2811,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="78"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -4134,7 +2827,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="77"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -4689,10 +3382,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4724,8 +3417,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -4755,8 +3448,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -4786,7 +3479,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="77"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -4819,10 +3512,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="53" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -4854,8 +3547,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -4885,8 +3578,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -4916,8 +3609,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -4947,8 +3640,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="77"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="53" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -4980,8 +3673,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -5011,8 +3704,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -5042,8 +3735,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -5073,7 +3766,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="77"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -5106,10 +3799,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="53" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -5141,8 +3834,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -5172,8 +3865,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -5203,8 +3896,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -5234,7 +3927,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="77"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -5267,7 +3960,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="77"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -5300,7 +3993,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="53" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -5335,7 +4028,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="77"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -5368,7 +4061,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="53" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5403,8 +4096,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="77"/>
-      <c r="B24" s="79" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="53" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -5436,8 +4129,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -5467,8 +4160,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -5498,10 +4191,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="53" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5533,8 +4226,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -5564,8 +4257,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="77"/>
-      <c r="B29" s="79" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="53" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -5597,8 +4290,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -5628,8 +4321,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="77"/>
-      <c r="B31" s="79" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="53" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -5661,8 +4354,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -31802,6 +30495,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -31809,13 +30509,6 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -31888,10 +30581,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -31908,8 +30601,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -31924,8 +30617,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -31940,8 +30633,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="81"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -31958,8 +30651,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -31974,10 +30667,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="54" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -31994,8 +30687,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -32010,8 +30703,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -32026,8 +30719,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="81"/>
-      <c r="B12" s="80" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="54" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -32044,8 +30737,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -32060,8 +30753,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -32076,8 +30769,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="81"/>
-      <c r="B15" s="80" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="54" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -32094,8 +30787,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -32110,8 +30803,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -32126,8 +30819,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="81"/>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="54" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -32144,8 +30837,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -32160,8 +30853,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -32176,8 +30869,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -32192,10 +30885,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="54" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -32212,8 +30905,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -32228,8 +30921,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -32244,8 +30937,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -32260,10 +30953,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="54" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -32280,8 +30973,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -32296,8 +30989,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="81"/>
-      <c r="B28" s="80" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="54" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -32312,8 +31005,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -32326,8 +31019,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -32340,8 +31033,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -32354,8 +31047,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -32370,7 +31063,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="81"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -32388,7 +31081,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="82"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -32421,11 +31114,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -32434,6 +31122,11 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32495,10 +31188,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="50" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -32509,13 +31202,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="50" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -32524,11 +31217,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="77"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -32537,11 +31230,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="77"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -32552,11 +31245,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="77"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -32565,11 +31258,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="77"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -32578,13 +31271,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="77"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -32595,13 +31288,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="50" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -32610,11 +31303,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="77"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -32623,11 +31316,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -32636,11 +31329,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -32651,11 +31344,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="77"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -32664,11 +31357,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -32677,11 +31370,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="77"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -32690,11 +31383,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -32703,11 +31396,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="77"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -32718,11 +31411,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -32731,11 +31424,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="77"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -32744,11 +31437,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -32759,11 +31452,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="77"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -32772,11 +31465,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="77"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -32785,20 +31478,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="77"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="76"/>
+      <c r="A23" s="50"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="50" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -32809,13 +31502,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="50" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -32824,10 +31517,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="77"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="77"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -32839,11 +31532,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="77"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="77"/>
-      <c r="B27" s="76" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -32854,11 +31547,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="77"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -32867,11 +31560,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="77"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -32880,11 +31573,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="77"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="77"/>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -32895,13 +31588,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="76" t="s">
+      <c r="G30" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -32910,11 +31603,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="77"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -32923,11 +31616,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="77"/>
+      <c r="G32" s="51"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -32936,11 +31629,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="77"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -32949,22 +31642,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="77"/>
+      <c r="G34" s="51"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="77"/>
+      <c r="G35" s="51"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="77"/>
-      <c r="B36" s="76" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="50" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -32973,68 +31666,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="77"/>
+      <c r="G36" s="51"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="77"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="77"/>
+      <c r="G38" s="51"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="77"/>
+      <c r="G39" s="51"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="77"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="77"/>
+      <c r="G41" s="51"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="50" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -33043,24 +31736,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="76" t="s">
+      <c r="G42" s="50" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="77"/>
+      <c r="G43" s="51"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="77"/>
-      <c r="B44" s="76" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="50" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -33069,22 +31762,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="77"/>
+      <c r="G44" s="51"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="77"/>
+      <c r="G45" s="51"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="77"/>
-      <c r="B46" s="76" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="50" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -33093,22 +31786,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="77"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="77"/>
+      <c r="G47" s="51"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="77"/>
-      <c r="B48" s="76" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="50" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -33117,22 +31810,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="77"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="77"/>
+      <c r="G49" s="51"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="77"/>
-      <c r="B50" s="76" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="50" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -33141,18 +31834,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="77"/>
+      <c r="G50" s="51"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="77"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -33180,15 +31873,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -33199,11 +31888,15 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33218,8 +31911,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33236,1128 +31929,1127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="65">
+        <v>43900</v>
+      </c>
+      <c r="F2" s="63">
+        <v>1</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="71">
+        <v>43900</v>
+      </c>
+      <c r="F3" s="49">
+        <v>1</v>
+      </c>
+      <c r="G3" s="69"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="71">
+        <v>43900</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="71">
+        <v>43901</v>
+      </c>
+      <c r="F5" s="49">
+        <v>1</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="71">
+        <v>43901</v>
+      </c>
+      <c r="F6" s="49">
+        <v>1</v>
+      </c>
+      <c r="G6" s="69"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="76">
+        <v>43901</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="79"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="79"/>
+      <c r="B12" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="79"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="79"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="79"/>
+      <c r="B17" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="79"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="79"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+    </row>
+    <row r="20" spans="1:10" s="48" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="79"/>
+      <c r="B20" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A21" s="79"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A22" s="80"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="65">
+        <v>43902</v>
+      </c>
+      <c r="F23" s="63">
+        <v>1</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="71">
+        <v>43902</v>
+      </c>
+      <c r="F24" s="49">
+        <v>1</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="68"/>
+      <c r="B25" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="71">
+        <v>43902</v>
+      </c>
+      <c r="F25" s="49">
+        <v>1</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="68"/>
+      <c r="B26" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="71">
+        <v>43903</v>
+      </c>
+      <c r="F26" s="49">
+        <v>2</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="71">
+        <v>43903</v>
+      </c>
+      <c r="F27" s="49">
+        <v>2</v>
+      </c>
+      <c r="G27" s="69"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" s="71">
+        <v>43903</v>
+      </c>
+      <c r="F28" s="49">
+        <v>1</v>
+      </c>
+      <c r="G28" s="69"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="71">
+        <v>43903</v>
+      </c>
+      <c r="F29" s="49">
+        <v>2</v>
+      </c>
+      <c r="G29" s="69"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="68"/>
+      <c r="B30" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="71">
+        <v>43901</v>
+      </c>
+      <c r="F30" s="49">
+        <v>1</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="68"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="71">
+        <v>43902</v>
+      </c>
+      <c r="F31" s="49">
+        <v>1</v>
+      </c>
+      <c r="G31" s="69"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="71">
+        <v>43902</v>
+      </c>
+      <c r="F32" s="49">
+        <v>1</v>
+      </c>
+      <c r="G32" s="69"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" s="71">
+        <v>43902</v>
+      </c>
+      <c r="F33" s="49">
+        <v>1</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="68"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="71">
+        <v>43903</v>
+      </c>
+      <c r="F34" s="49">
+        <v>1</v>
+      </c>
+      <c r="G34" s="69"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="68"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="71">
+        <v>43903</v>
+      </c>
+      <c r="F35" s="85">
+        <v>1</v>
+      </c>
+      <c r="G35" s="69"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="68"/>
+      <c r="B36" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="86">
+        <v>43908</v>
+      </c>
+      <c r="F36" s="85">
+        <v>2</v>
+      </c>
+      <c r="G36" s="69"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="86">
+        <v>43909</v>
+      </c>
+      <c r="F37" s="85">
+        <v>2</v>
+      </c>
+      <c r="G37" s="69"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="68"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" s="86">
+        <v>43909</v>
+      </c>
+      <c r="F38" s="85">
+        <v>2</v>
+      </c>
+      <c r="G38" s="69"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="68"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="86">
+        <v>43909</v>
+      </c>
+      <c r="F39" s="85">
+        <v>2</v>
+      </c>
+      <c r="G39" s="69"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="73"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A40" s="68"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="86">
+        <v>43910</v>
+      </c>
+      <c r="F40" s="85">
+        <v>2</v>
+      </c>
+      <c r="G40" s="69"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="73"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="86">
+        <v>43910</v>
+      </c>
+      <c r="F41" s="87">
+        <v>2</v>
+      </c>
+      <c r="G41" s="75"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="78"/>
+    </row>
+    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="88">
+        <v>43901</v>
+      </c>
+      <c r="F42" s="89">
+        <v>1</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="79"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="E43" s="86">
+        <v>43903</v>
+      </c>
+      <c r="F43" s="85">
+        <v>2</v>
+      </c>
+      <c r="G43" s="57"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="68"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="86">
+        <v>43903</v>
+      </c>
+      <c r="F44" s="85">
+        <v>2</v>
+      </c>
+      <c r="G44" s="69"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="68"/>
+      <c r="B45" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="E45" s="86">
+        <v>43901</v>
+      </c>
+      <c r="F45" s="90">
+        <v>1</v>
+      </c>
+      <c r="G45" s="69"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="73"/>
+    </row>
+    <row r="46" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="68"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="E46" s="86">
+        <v>43903</v>
+      </c>
+      <c r="F46" s="85">
+        <v>2</v>
+      </c>
+      <c r="G46" s="69"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="68"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" s="86">
+        <v>43908</v>
+      </c>
+      <c r="F47" s="85">
+        <v>2</v>
+      </c>
+      <c r="G47" s="69"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="73"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="68"/>
+      <c r="B48" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="86">
+        <v>43901</v>
+      </c>
+      <c r="F48" s="90">
+        <v>1</v>
+      </c>
+      <c r="G48" s="69"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="73"/>
+    </row>
+    <row r="49" spans="1:12" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="68"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="94">
-        <v>43900</v>
-      </c>
-      <c r="F2" s="54">
+      <c r="D49" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="86">
+        <v>43908</v>
+      </c>
+      <c r="F49" s="85">
+        <v>2</v>
+      </c>
+      <c r="G49" s="69"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="73"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="86">
+        <v>43908</v>
+      </c>
+      <c r="F50" s="85">
+        <v>2</v>
+      </c>
+      <c r="G50" s="69"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="73"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A51" s="68"/>
+      <c r="B51" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="86">
+        <v>43903</v>
+      </c>
+      <c r="F51" s="85">
+        <v>2</v>
+      </c>
+      <c r="G51" s="69"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="73"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="68"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="86">
+        <v>43908</v>
+      </c>
+      <c r="F52" s="85">
+        <v>3</v>
+      </c>
+      <c r="G52" s="69"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="73"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A53" s="68"/>
+      <c r="B53" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="86">
+        <v>43903</v>
+      </c>
+      <c r="F53" s="85">
+        <v>3</v>
+      </c>
+      <c r="G53" s="69"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="73"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A54" s="74"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="91">
+        <v>43908</v>
+      </c>
+      <c r="F54" s="87">
+        <v>3</v>
+      </c>
+      <c r="G54" s="75"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="78"/>
+    </row>
+    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A55" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" s="95">
+        <v>43899</v>
+      </c>
+      <c r="F55" s="96">
         <v>1</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G55" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="95">
-        <v>43900</v>
-      </c>
-      <c r="F3" s="45">
-        <v>1</v>
-      </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="95">
-        <v>43900</v>
-      </c>
-      <c r="F4" s="45">
-        <v>1</v>
-      </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="95">
-        <v>43901</v>
-      </c>
-      <c r="F5" s="45">
-        <v>1</v>
-      </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="95">
-        <v>43901</v>
-      </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="96">
-        <v>43901</v>
-      </c>
-      <c r="F7" s="64">
-        <v>1</v>
-      </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="59"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="59"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="59"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="94">
-        <v>43902</v>
-      </c>
-      <c r="F22" s="54">
-        <v>1</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="95">
-        <v>43902</v>
-      </c>
-      <c r="F23" s="45">
-        <v>1</v>
-      </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="59"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="84"/>
-      <c r="B24" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="95">
-        <v>43902</v>
-      </c>
-      <c r="F24" s="45">
-        <v>1</v>
-      </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="59"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="97">
-        <v>43903</v>
-      </c>
-      <c r="F25" s="45">
-        <v>2</v>
-      </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="59"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="84"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="97">
-        <v>43903</v>
-      </c>
-      <c r="F26" s="45">
-        <v>2</v>
-      </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="59"/>
-    </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="E27" s="97">
-        <v>43903</v>
-      </c>
-      <c r="F27" s="45">
-        <v>1</v>
-      </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="59"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="84"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="97">
-        <v>43903</v>
-      </c>
-      <c r="F28" s="45">
-        <v>1</v>
-      </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="59"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="84"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="97">
-        <v>43903</v>
-      </c>
-      <c r="F29" s="45">
-        <v>2</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="59"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="84"/>
-      <c r="B30" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="97">
-        <v>43901</v>
-      </c>
-      <c r="F30" s="45">
-        <v>1</v>
-      </c>
-      <c r="G30" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="59"/>
-    </row>
-    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="84"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="97">
-        <v>43902</v>
-      </c>
-      <c r="F31" s="45">
-        <v>1</v>
-      </c>
-      <c r="G31" s="87"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="59"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="97">
-        <v>43902</v>
-      </c>
-      <c r="F32" s="45">
-        <v>1</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="59"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="E33" s="97">
-        <v>43902</v>
-      </c>
-      <c r="F33" s="45">
-        <v>1</v>
-      </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="59"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="84"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="97">
-        <v>43903</v>
-      </c>
-      <c r="F34" s="45">
-        <v>1</v>
-      </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="59"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="84"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="97">
-        <v>43903</v>
-      </c>
-      <c r="F35" s="52">
-        <v>1</v>
-      </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="59"/>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="84"/>
-      <c r="B36" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="98">
-        <v>43908</v>
-      </c>
-      <c r="F36" s="52">
-        <v>2</v>
-      </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="59"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="84"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="98">
-        <v>43909</v>
-      </c>
-      <c r="F37" s="52">
-        <v>2</v>
-      </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="59"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="84"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="E38" s="98">
-        <v>43909</v>
-      </c>
-      <c r="F38" s="52">
-        <v>2</v>
-      </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="59"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="98">
-        <v>43909</v>
-      </c>
-      <c r="F39" s="52">
-        <v>2</v>
-      </c>
-      <c r="G39" s="87"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="59"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="84"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="98">
-        <v>43910</v>
-      </c>
-      <c r="F40" s="52">
-        <v>2</v>
-      </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="59"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A41" s="85"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="98">
-        <v>43910</v>
-      </c>
-      <c r="F41" s="70">
-        <v>2</v>
-      </c>
-      <c r="G41" s="88"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="63"/>
-    </row>
-    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="67">
-        <v>43901</v>
-      </c>
-      <c r="F42" s="68">
-        <v>1</v>
-      </c>
-      <c r="G42" s="86" t="s">
-        <v>309</v>
-      </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
-    </row>
-    <row r="43" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="90"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="E43" s="50">
-        <v>43903</v>
-      </c>
-      <c r="F43" s="52">
-        <v>2</v>
-      </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="59"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="50">
-        <v>43903</v>
-      </c>
-      <c r="F44" s="52">
-        <v>2</v>
-      </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="59"/>
-    </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" s="50">
-        <v>43901</v>
-      </c>
-      <c r="F45" s="51">
-        <v>1</v>
-      </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="59"/>
-    </row>
-    <row r="46" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" s="50">
-        <v>43903</v>
-      </c>
-      <c r="F46" s="52">
-        <v>2</v>
-      </c>
-      <c r="G46" s="87"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="59"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="84"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="E47" s="50">
-        <v>43908</v>
-      </c>
-      <c r="F47" s="52">
-        <v>2</v>
-      </c>
-      <c r="G47" s="87"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="59"/>
-    </row>
-    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="50">
-        <v>43901</v>
-      </c>
-      <c r="F48" s="51">
-        <v>1</v>
-      </c>
-      <c r="G48" s="87"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="59"/>
-    </row>
-    <row r="49" spans="1:12" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="84"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="E49" s="50">
-        <v>43908</v>
-      </c>
-      <c r="F49" s="52">
-        <v>2</v>
-      </c>
-      <c r="G49" s="87"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="59"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="50">
-        <v>43908</v>
-      </c>
-      <c r="F50" s="52">
-        <v>2</v>
-      </c>
-      <c r="G50" s="87"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="59"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="50">
-        <v>43903</v>
-      </c>
-      <c r="F51" s="52">
-        <v>2</v>
-      </c>
-      <c r="G51" s="87"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="59"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="50">
-        <v>43908</v>
-      </c>
-      <c r="F52" s="52">
-        <v>3</v>
-      </c>
-      <c r="G52" s="87"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="59"/>
-    </row>
-    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="50">
-        <v>43903</v>
-      </c>
-      <c r="F53" s="52">
-        <v>3</v>
-      </c>
-      <c r="G53" s="87"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="59"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A54" s="85"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="69">
-        <v>43908</v>
-      </c>
-      <c r="F54" s="70">
-        <v>3</v>
-      </c>
-      <c r="G54" s="88"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="63"/>
-    </row>
-    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A55" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="B55" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="D55" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="E55" s="99">
-        <v>43899</v>
-      </c>
-      <c r="F55" s="74">
-        <v>1</v>
-      </c>
-      <c r="G55" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="75"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="97"/>
       <c r="K55" s="39"/>
       <c r="L55" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:A41"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="G8:G22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A42:A54"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="G42:G54"/>
@@ -34365,16 +33057,13 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="G8:G21"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A41"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="B36:B41"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project04\WebContent\발표자료\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project04\WebContent\발표자료\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="353">
   <si>
     <t>구분</t>
   </si>
@@ -1142,6 +1142,58 @@
   </si>
   <si>
     <t>스토어에 등록된 상품을 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 10일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 12일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 12일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 11일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 20일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 18일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 20일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 13일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 13일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 17일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 15일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 15일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 17일</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1550,11 +1602,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1683,39 +1748,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,12 +1763,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1749,12 +1775,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,15 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1819,6 +1830,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2098,10 +2166,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2115,8 +2183,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2128,8 +2196,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2141,8 +2209,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="51"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2156,8 +2224,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +2237,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="78" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2186,8 +2254,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="51"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="78" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2201,8 +2269,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2214,8 +2282,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="51"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2229,8 +2297,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2242,8 +2310,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2255,8 +2323,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2268,8 +2336,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="51"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="78" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2283,8 +2351,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2296,8 +2364,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2309,8 +2377,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="78" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2324,8 +2392,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -2337,8 +2405,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="51"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2352,8 +2420,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -2365,8 +2433,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -2378,7 +2446,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2395,7 +2463,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="51"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -2410,8 +2478,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="51"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="78" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2425,8 +2493,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -2438,8 +2506,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -2451,8 +2519,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="51"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="78" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2466,8 +2534,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -2479,8 +2547,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -2492,8 +2560,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2505,8 +2573,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -2518,8 +2586,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -2528,8 +2596,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="51"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="79"/>
+      <c r="B33" s="78" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2540,8 +2608,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -2550,8 +2618,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -2560,8 +2628,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -2570,8 +2638,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -2580,8 +2648,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -2590,10 +2658,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="78" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2604,8 +2672,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -2614,8 +2682,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="51"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="79"/>
+      <c r="B41" s="78" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2626,8 +2694,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -2636,8 +2704,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="51"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="79"/>
+      <c r="B43" s="78" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -2648,8 +2716,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -2658,8 +2726,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="51"/>
-      <c r="B45" s="50" t="s">
+      <c r="A45" s="79"/>
+      <c r="B45" s="78" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2670,8 +2738,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -2680,8 +2748,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="51"/>
-      <c r="B47" s="50" t="s">
+      <c r="A47" s="79"/>
+      <c r="B47" s="78" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2692,8 +2760,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -2702,8 +2770,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -2712,8 +2780,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -2723,15 +2791,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -2742,6 +2801,15 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2811,7 +2879,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="52"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -2827,7 +2895,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="51"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -3382,10 +3450,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -3417,8 +3485,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -3448,8 +3516,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -3479,7 +3547,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="51"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -3512,10 +3580,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="81" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -3547,8 +3615,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -3578,8 +3646,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -3609,8 +3677,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -3640,8 +3708,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="81" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -3673,8 +3741,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -3704,8 +3772,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -3735,8 +3803,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -3766,7 +3834,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="51"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -3799,10 +3867,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="81" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -3834,8 +3902,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -3865,8 +3933,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -3896,8 +3964,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -3927,7 +3995,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="51"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -3960,7 +4028,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="51"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -3993,7 +4061,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="81" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4028,7 +4096,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="51"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -4061,7 +4129,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="81" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -4096,8 +4164,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -4129,8 +4197,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -4160,8 +4228,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -4191,10 +4259,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="81" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -4226,8 +4294,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -4257,8 +4325,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -4290,8 +4358,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -4321,8 +4389,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="79"/>
+      <c r="B31" s="81" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -4354,8 +4422,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -30495,6 +30563,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A2:A5"/>
@@ -30502,13 +30577,6 @@
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -30581,10 +30649,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="82" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -30601,8 +30669,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -30617,8 +30685,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -30633,8 +30701,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -30651,8 +30719,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -30667,10 +30735,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="82" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -30687,8 +30755,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -30703,8 +30771,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -30719,8 +30787,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="82" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -30737,8 +30805,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -30753,8 +30821,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -30769,8 +30837,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="55"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="82" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -30787,8 +30855,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -30803,8 +30871,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -30819,8 +30887,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="55"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="82" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -30837,8 +30905,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -30853,8 +30921,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -30869,8 +30937,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -30885,10 +30953,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="82" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -30905,8 +30973,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -30921,8 +30989,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -30937,8 +31005,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -30953,10 +31021,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="82" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -30973,8 +31041,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -30989,8 +31057,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="55"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="82" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -31005,8 +31073,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -31019,8 +31087,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -31033,8 +31101,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -31047,8 +31115,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -31063,7 +31131,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="55"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -31081,7 +31149,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="56"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -31114,6 +31182,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -31122,11 +31195,6 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31188,10 +31256,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -31202,13 +31270,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="78" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -31217,11 +31285,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -31230,11 +31298,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="51"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -31245,11 +31313,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -31258,11 +31326,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="51"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -31271,13 +31339,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="78" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -31288,13 +31356,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="78" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -31303,11 +31371,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="51"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -31316,11 +31384,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="51"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -31329,11 +31397,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -31344,11 +31412,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="51"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -31357,11 +31425,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -31370,11 +31438,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="51"/>
+      <c r="G14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -31383,11 +31451,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="51"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -31396,11 +31464,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="51"/>
+      <c r="G16" s="79"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -31411,11 +31479,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="51"/>
+      <c r="G17" s="79"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -31424,11 +31492,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="51"/>
+      <c r="G18" s="79"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -31437,11 +31505,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="51"/>
+      <c r="G19" s="79"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -31452,11 +31520,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="79"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -31465,11 +31533,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="79"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -31478,20 +31546,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="51"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="50"/>
+      <c r="A23" s="78"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="78" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -31502,13 +31570,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="78" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -31517,10 +31585,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="51"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="51"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -31532,11 +31600,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="51"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="51"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="78" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -31547,11 +31615,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="51"/>
+      <c r="G27" s="79"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -31560,11 +31628,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="51"/>
+      <c r="G28" s="79"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -31573,11 +31641,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="51"/>
+      <c r="G29" s="79"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="51"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="78" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -31588,13 +31656,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="78" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -31603,11 +31671,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="51"/>
+      <c r="G31" s="79"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -31616,11 +31684,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="79"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -31629,11 +31697,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="51"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -31642,22 +31710,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="51"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="51"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="51"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="78" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -31666,68 +31734,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="51"/>
+      <c r="G36" s="79"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="51"/>
+      <c r="G37" s="79"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="79"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="51"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="51"/>
+      <c r="G40" s="79"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="51"/>
+      <c r="G41" s="79"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="78" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -31736,24 +31804,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="78" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="51"/>
+      <c r="G43" s="79"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="51"/>
-      <c r="B44" s="50" t="s">
+      <c r="A44" s="79"/>
+      <c r="B44" s="78" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -31762,22 +31830,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="51"/>
+      <c r="G44" s="79"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="51"/>
+      <c r="G45" s="79"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="51"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="79"/>
+      <c r="B46" s="78" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -31786,22 +31854,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="51"/>
+      <c r="G46" s="79"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="51"/>
+      <c r="G47" s="79"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="51"/>
-      <c r="B48" s="50" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="78" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -31810,22 +31878,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="51"/>
+      <c r="G48" s="79"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="51"/>
+      <c r="G49" s="79"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="51"/>
-      <c r="B50" s="50" t="s">
+      <c r="A50" s="79"/>
+      <c r="B50" s="78" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -31834,18 +31902,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="51"/>
+      <c r="G50" s="79"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="51"/>
+      <c r="G51" s="79"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -31873,11 +31941,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -31888,15 +31960,11 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31909,10 +31977,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31961,1109 +32029,1149 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="52">
         <v>43900</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="50">
         <v>1</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="88" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="56">
         <v>43900</v>
       </c>
       <c r="F3" s="49">
         <v>1</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="56">
         <v>43900</v>
       </c>
       <c r="F4" s="49">
         <v>1</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="91" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="56">
         <v>43901</v>
       </c>
       <c r="F5" s="49">
         <v>1</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="56">
         <v>43901</v>
       </c>
       <c r="F6" s="49">
         <v>1</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="59">
         <v>43901</v>
       </c>
       <c r="F7" s="46">
         <v>1</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="62" t="s">
+      <c r="E8" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="50">
+        <v>1</v>
+      </c>
+      <c r="G8" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
+      <c r="E9" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
+      <c r="E10" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="49">
+        <v>2</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
+      <c r="E11" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="49">
+        <v>2</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="95" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="49">
+        <v>2</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="69"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="49">
+        <v>1</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
+        <v>320</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="49">
+        <v>1</v>
+      </c>
+      <c r="G14" s="91"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+        <v>300</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="49">
+        <v>2</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="91" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="49">
+        <v>1</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="57" t="s">
-        <v>39</v>
-      </c>
+      <c r="A17" s="92"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>327</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="49">
+        <v>1</v>
+      </c>
+      <c r="G17" s="91"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="69"/>
+        <v>44</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="49">
+        <v>1</v>
+      </c>
+      <c r="G18" s="91"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10" s="48" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="95" t="s">
+        <v>315</v>
+      </c>
       <c r="C19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-    </row>
-    <row r="20" spans="1:10" s="48" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="58" t="s">
-        <v>315</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="49">
+        <v>2</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D20" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="46" t="s">
+      <c r="E20" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="49">
+        <v>1</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D21" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
+      <c r="E21" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="46">
+        <v>1</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="52">
+        <v>43902</v>
+      </c>
+      <c r="F22" s="50">
+        <v>1</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E23" s="65">
+      <c r="A23" s="86"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="56">
         <v>43902</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="49">
         <v>1</v>
       </c>
-      <c r="G23" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="49" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="71">
+        <v>63</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="56">
         <v>43902</v>
       </c>
       <c r="F24" s="49">
         <v>1</v>
       </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="49" t="s">
-        <v>62</v>
+      <c r="A25" s="86"/>
+      <c r="B25" s="91" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="71">
-        <v>43902</v>
+        <v>66</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="56">
+        <v>43903</v>
       </c>
       <c r="F25" s="49">
-        <v>1</v>
-      </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="57" t="s">
-        <v>65</v>
-      </c>
+      <c r="A26" s="86"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="71">
+        <v>68</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="56">
         <v>43903</v>
       </c>
       <c r="F26" s="49">
         <v>2</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="71">
+      <c r="A27" s="86"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="56">
         <v>43903</v>
       </c>
       <c r="F27" s="49">
+        <v>1</v>
+      </c>
+      <c r="G27" s="89"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="86"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F28" s="49">
         <v>2</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="83" t="s">
-        <v>331</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>332</v>
-      </c>
-      <c r="E28" s="71">
-        <v>43903</v>
-      </c>
-      <c r="F28" s="49">
+      <c r="G28" s="89"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="86"/>
+      <c r="B29" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="56">
+        <v>43901</v>
+      </c>
+      <c r="F29" s="49">
         <v>1</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="71">
-        <v>43903</v>
-      </c>
-      <c r="F29" s="49">
-        <v>2</v>
-      </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="G29" s="91" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="57" t="s">
-        <v>72</v>
-      </c>
+      <c r="A30" s="86"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="71">
-        <v>43901</v>
+        <v>77</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="56">
+        <v>43902</v>
       </c>
       <c r="F30" s="49">
         <v>1</v>
       </c>
-      <c r="G30" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="71">
+        <v>306</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="56">
         <v>43902</v>
       </c>
       <c r="F31" s="49">
         <v>1</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="71">
+        <v>322</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="56">
         <v>43902</v>
       </c>
       <c r="F32" s="49">
         <v>1</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="69"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>323</v>
-      </c>
-      <c r="E33" s="71">
-        <v>43902</v>
+        <v>81</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="56">
+        <v>43903</v>
       </c>
       <c r="F33" s="49">
         <v>1</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="73"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F34" s="65">
+        <v>1</v>
+      </c>
+      <c r="G34" s="89"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F35" s="65">
+        <v>2</v>
+      </c>
+      <c r="G35" s="89"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="66">
+        <v>43909</v>
+      </c>
+      <c r="F36" s="65">
+        <v>2</v>
+      </c>
+      <c r="G36" s="89"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="86"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="66">
+        <v>43909</v>
+      </c>
+      <c r="F37" s="65">
+        <v>2</v>
+      </c>
+      <c r="G37" s="89"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="86"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="66">
+        <v>43909</v>
+      </c>
+      <c r="F38" s="65">
+        <v>2</v>
+      </c>
+      <c r="G38" s="89"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="86"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="71">
+      <c r="D39" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="66">
+        <v>43910</v>
+      </c>
+      <c r="F39" s="65">
+        <v>2</v>
+      </c>
+      <c r="G39" s="89"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A40" s="87"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="66">
+        <v>43910</v>
+      </c>
+      <c r="F40" s="67">
+        <v>2</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="68">
+        <v>43901</v>
+      </c>
+      <c r="F41" s="69">
+        <v>1</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
+    </row>
+    <row r="42" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="66">
         <v>43903</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F42" s="65">
+        <v>2</v>
+      </c>
+      <c r="G42" s="91"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="86"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F43" s="65">
+        <v>2</v>
+      </c>
+      <c r="G43" s="89"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="86"/>
+      <c r="B44" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" s="66">
+        <v>43901</v>
+      </c>
+      <c r="F44" s="70">
         <v>1</v>
       </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="73"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="71">
+      <c r="G44" s="89"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="86"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E45" s="66">
         <v>43903</v>
       </c>
-      <c r="F35" s="85">
+      <c r="F45" s="65">
+        <v>2</v>
+      </c>
+      <c r="G45" s="89"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="86"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F46" s="65">
+        <v>2</v>
+      </c>
+      <c r="G46" s="89"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="86"/>
+      <c r="B47" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="66">
+        <v>43901</v>
+      </c>
+      <c r="F47" s="70">
         <v>1</v>
       </c>
-      <c r="G35" s="69"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="86">
+      <c r="G47" s="89"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="86"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="66">
         <v>43908</v>
       </c>
-      <c r="F36" s="85">
+      <c r="F48" s="65">
         <v>2</v>
       </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="86">
-        <v>43909</v>
-      </c>
-      <c r="F37" s="85">
+      <c r="G48" s="89"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="86"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F49" s="65">
         <v>2</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="E38" s="86">
-        <v>43909</v>
-      </c>
-      <c r="F38" s="85">
+      <c r="G49" s="89"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="86"/>
+      <c r="B50" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F50" s="65">
         <v>2</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="86">
-        <v>43909</v>
-      </c>
-      <c r="F39" s="85">
-        <v>2</v>
-      </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="73"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="86">
-        <v>43910</v>
-      </c>
-      <c r="F40" s="85">
-        <v>2</v>
-      </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="86">
-        <v>43910</v>
-      </c>
-      <c r="F41" s="87">
-        <v>2</v>
-      </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="78"/>
-    </row>
-    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="88">
-        <v>43901</v>
-      </c>
-      <c r="F42" s="89">
+      <c r="G50" s="89"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="58"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A51" s="86"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F51" s="65">
+        <v>3</v>
+      </c>
+      <c r="G51" s="89"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="58"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="86"/>
+      <c r="B52" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F52" s="65">
+        <v>3</v>
+      </c>
+      <c r="G52" s="89"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A53" s="87"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="71">
+        <v>43908</v>
+      </c>
+      <c r="F53" s="67">
+        <v>3</v>
+      </c>
+      <c r="G53" s="90"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="61"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A54" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" s="75">
+        <v>43899</v>
+      </c>
+      <c r="F54" s="76">
         <v>1</v>
       </c>
-      <c r="G42" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="67"/>
-    </row>
-    <row r="43" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="79"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="E43" s="86">
-        <v>43903</v>
-      </c>
-      <c r="F43" s="85">
-        <v>2</v>
-      </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="73"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="68"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="86">
-        <v>43903</v>
-      </c>
-      <c r="F44" s="85">
-        <v>2</v>
-      </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="73"/>
-    </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="68"/>
-      <c r="B45" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="E45" s="86">
-        <v>43901</v>
-      </c>
-      <c r="F45" s="90">
-        <v>1</v>
-      </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="73"/>
-    </row>
-    <row r="46" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="68"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="D46" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="E46" s="86">
-        <v>43903</v>
-      </c>
-      <c r="F46" s="85">
-        <v>2</v>
-      </c>
-      <c r="G46" s="69"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="73"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="D47" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="E47" s="86">
-        <v>43908</v>
-      </c>
-      <c r="F47" s="85">
-        <v>2</v>
-      </c>
-      <c r="G47" s="69"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="73"/>
-    </row>
-    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="68"/>
-      <c r="B48" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="86">
-        <v>43901</v>
-      </c>
-      <c r="F48" s="90">
-        <v>1</v>
-      </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73"/>
-    </row>
-    <row r="49" spans="1:12" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="D49" s="70" t="s">
-        <v>339</v>
-      </c>
-      <c r="E49" s="86">
-        <v>43908</v>
-      </c>
-      <c r="F49" s="85">
-        <v>2</v>
-      </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="73"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="86">
-        <v>43908</v>
-      </c>
-      <c r="F50" s="85">
-        <v>2</v>
-      </c>
-      <c r="G50" s="69"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="73"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="86">
-        <v>43903</v>
-      </c>
-      <c r="F51" s="85">
-        <v>2</v>
-      </c>
-      <c r="G51" s="69"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="73"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="86">
-        <v>43908</v>
-      </c>
-      <c r="F52" s="85">
-        <v>3</v>
-      </c>
-      <c r="G52" s="69"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="73"/>
-    </row>
-    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A53" s="68"/>
-      <c r="B53" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="86">
-        <v>43903</v>
-      </c>
-      <c r="F53" s="85">
-        <v>3</v>
-      </c>
-      <c r="G53" s="69"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="73"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A54" s="74"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="91">
-        <v>43908</v>
-      </c>
-      <c r="F54" s="87">
-        <v>3</v>
-      </c>
-      <c r="G54" s="75"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="78"/>
-    </row>
-    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A55" s="92" t="s">
-        <v>311</v>
-      </c>
-      <c r="B55" s="93" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="93" t="s">
-        <v>312</v>
-      </c>
-      <c r="D55" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="E55" s="95">
-        <v>43899</v>
-      </c>
-      <c r="F55" s="96">
-        <v>1</v>
-      </c>
-      <c r="G55" s="93" t="s">
+      <c r="G54" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:A40"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="G29:G40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G41:G53"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="A8:A21"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="G8:G22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="G42:G54"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A23:A41"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G8:G21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project04\WebContent\발표자료\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project04\WebContent\발표자료\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="345">
   <si>
     <t>구분</t>
   </si>
@@ -1145,55 +1145,21 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3월 10일</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3월 12일</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3월 12일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 11일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 20일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 18일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 20일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 13일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 13일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 17일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 15일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 15일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 17일</t>
+    <t>X</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1619,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,33 +1701,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1769,29 +1717,11 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1826,10 +1756,28 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1887,6 +1835,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2166,10 +2123,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="72" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2183,8 +2140,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2196,8 +2153,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2209,8 +2166,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="79"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2224,8 +2181,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2194,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="72" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2254,8 +2211,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="79"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="72" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2269,8 +2226,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2282,8 +2239,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="79"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="72" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2297,8 +2254,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2310,8 +2267,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2323,8 +2280,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2336,8 +2293,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="79"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="72" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2351,8 +2308,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2321,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2377,8 +2334,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="72" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2392,8 +2349,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -2405,8 +2362,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="79"/>
-      <c r="B19" s="78" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="72" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2420,8 +2377,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -2433,8 +2390,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -2446,7 +2403,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="72" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2463,7 +2420,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="79"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -2478,8 +2435,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="79"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2493,8 +2450,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -2506,8 +2463,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -2519,8 +2476,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="79"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="72" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2534,8 +2491,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -2547,8 +2504,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -2560,8 +2517,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2573,8 +2530,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -2586,8 +2543,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -2596,8 +2553,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="79"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="72" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2608,8 +2565,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -2618,8 +2575,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -2628,8 +2585,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -2638,8 +2595,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -2648,8 +2605,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -2658,10 +2615,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="72" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2672,8 +2629,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -2682,8 +2639,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="79"/>
-      <c r="B41" s="78" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2694,8 +2651,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -2704,8 +2661,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="79"/>
-      <c r="B43" s="78" t="s">
+      <c r="A43" s="73"/>
+      <c r="B43" s="72" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -2716,8 +2673,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -2726,8 +2683,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="79"/>
-      <c r="B45" s="78" t="s">
+      <c r="A45" s="73"/>
+      <c r="B45" s="72" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2738,8 +2695,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -2748,8 +2705,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="79"/>
-      <c r="B47" s="78" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="72" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2760,8 +2717,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -2770,8 +2727,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -2780,8 +2737,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -2879,7 +2836,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="80"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -2895,7 +2852,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="79"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -3450,10 +3407,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -3485,8 +3442,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -3516,8 +3473,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -3547,7 +3504,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="79"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -3580,10 +3537,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="75" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -3615,8 +3572,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -3646,8 +3603,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -3677,8 +3634,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -3708,8 +3665,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="79"/>
-      <c r="B10" s="81" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -3741,8 +3698,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -3772,8 +3729,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -3803,8 +3760,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -3834,7 +3791,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="79"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -3867,10 +3824,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="75" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -3902,8 +3859,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -3933,8 +3890,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -3964,8 +3921,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -3995,7 +3952,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="79"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -4028,7 +3985,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="79"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -4061,7 +4018,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="75" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4096,7 +4053,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="79"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -4129,7 +4086,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="75" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -4164,8 +4121,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="79"/>
-      <c r="B24" s="81" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="75" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -4197,8 +4154,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -4228,8 +4185,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -4259,10 +4216,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="75" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -4294,8 +4251,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -4325,8 +4282,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="79"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -4358,8 +4315,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -4389,8 +4346,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="79"/>
-      <c r="B31" s="81" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -4422,8 +4379,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -30649,10 +30606,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -30669,8 +30626,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -30685,8 +30642,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -30701,8 +30658,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="83"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -30719,8 +30676,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -30735,10 +30692,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="76" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -30755,8 +30712,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -30771,8 +30728,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -30787,8 +30744,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="83"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="76" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -30805,8 +30762,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -30821,8 +30778,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -30837,8 +30794,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="83"/>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="76" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -30855,8 +30812,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -30871,8 +30828,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -30887,8 +30844,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -30905,8 +30862,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -30921,8 +30878,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -30937,8 +30894,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -30953,10 +30910,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="76" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -30973,8 +30930,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -30989,8 +30946,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -31005,8 +30962,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -31021,10 +30978,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -31041,8 +30998,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -31057,8 +31014,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="83"/>
-      <c r="B28" s="82" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -31073,8 +31030,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -31087,8 +31044,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -31101,8 +31058,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -31115,8 +31072,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -31131,7 +31088,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="83"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -31149,7 +31106,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="84"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -31256,10 +31213,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="72" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -31270,13 +31227,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="72" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -31285,11 +31242,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="79"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -31298,11 +31255,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="79"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="79"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -31313,11 +31270,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="79"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -31326,11 +31283,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="79"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -31339,13 +31296,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="79"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="72" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -31356,13 +31313,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="72" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -31371,11 +31328,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="79"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -31384,11 +31341,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="79"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -31397,11 +31354,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="79"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -31412,11 +31369,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="79"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -31425,11 +31382,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="79"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -31438,11 +31395,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="79"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -31451,11 +31408,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="79"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -31464,11 +31421,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="79"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -31479,11 +31436,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="79"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -31492,11 +31449,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="79"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -31505,11 +31462,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="79"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -31520,11 +31477,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="79"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -31533,11 +31490,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="79"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -31546,20 +31503,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="79"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="78"/>
+      <c r="A23" s="72"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="72" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -31570,13 +31527,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="72" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -31585,10 +31542,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="79"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="79"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -31600,11 +31557,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="79"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="79"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -31615,11 +31572,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="79"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -31628,11 +31585,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="79"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -31641,11 +31598,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="79"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="79"/>
-      <c r="B30" s="78" t="s">
+      <c r="A30" s="73"/>
+      <c r="B30" s="72" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -31656,13 +31613,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="72" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -31671,11 +31628,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="79"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -31684,11 +31641,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="79"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -31697,11 +31654,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="79"/>
+      <c r="G33" s="73"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -31710,22 +31667,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="79"/>
+      <c r="G34" s="73"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="79"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="79"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="72" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -31734,68 +31691,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="79"/>
+      <c r="G36" s="73"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="79"/>
+      <c r="G37" s="73"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="79"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="79"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="73"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="72" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -31804,24 +31761,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="72" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="79"/>
+      <c r="G43" s="73"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="79"/>
-      <c r="B44" s="78" t="s">
+      <c r="A44" s="73"/>
+      <c r="B44" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -31830,22 +31787,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="79"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="79"/>
+      <c r="G45" s="73"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="79"/>
-      <c r="B46" s="78" t="s">
+      <c r="A46" s="73"/>
+      <c r="B46" s="72" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -31854,22 +31811,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="79"/>
+      <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="79"/>
+      <c r="G47" s="73"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="79"/>
-      <c r="B48" s="78" t="s">
+      <c r="A48" s="73"/>
+      <c r="B48" s="72" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -31878,22 +31835,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="79"/>
+      <c r="G48" s="73"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="79"/>
+      <c r="G49" s="73"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="79"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="73"/>
+      <c r="B50" s="72" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -31902,18 +31859,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="79"/>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="79"/>
+      <c r="G51" s="73"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -31980,7 +31937,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31989,1160 +31946,1372 @@
     <col min="2" max="2" width="17.85546875" style="41" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="41" customWidth="1"/>
     <col min="4" max="4" width="72.42578125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="41" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" style="41"/>
+    <col min="5" max="6" width="12.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="41"/>
+    <col min="8" max="9" width="10.7109375" style="41" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="41" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="95" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="48">
         <v>43900</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="65">
         <v>1</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="H2" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="86"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="50">
         <v>43900</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="66">
         <v>1</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="50">
         <v>43900</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="66">
         <v>1</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="91" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="50">
         <v>43901</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="66">
         <v>1</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="49" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="50">
         <v>43901</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="66">
         <v>1</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="51">
         <v>43901</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="67">
         <v>1</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="48">
+        <v>43900</v>
+      </c>
+      <c r="F8" s="65">
+        <v>1</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="F8" s="50">
+      <c r="I8" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="50">
+        <v>43901</v>
+      </c>
+      <c r="F9" s="66">
         <v>1</v>
       </c>
-      <c r="G8" s="88" t="s">
-        <v>297</v>
-      </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="56" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="50">
+        <v>43907</v>
+      </c>
+      <c r="F10" s="66">
+        <v>2</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" s="70"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="50">
+        <v>43908</v>
+      </c>
+      <c r="F11" s="66">
+        <v>2</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="50">
+        <v>43910</v>
+      </c>
+      <c r="F12" s="66">
+        <v>2</v>
+      </c>
+      <c r="G12" s="85"/>
+      <c r="H12" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="86"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F13" s="66">
+        <v>1</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="86"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F14" s="66">
+        <v>1</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="86"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="50">
+        <v>43907</v>
+      </c>
+      <c r="F15" s="66">
+        <v>2</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="86"/>
+      <c r="B16" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="50">
+        <v>43902</v>
+      </c>
+      <c r="F16" s="66">
+        <v>1</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="86"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="50">
+        <v>43900</v>
+      </c>
+      <c r="F17" s="66">
+        <v>1</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="86"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="50">
+        <v>43902</v>
+      </c>
+      <c r="F18" s="66">
+        <v>1</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="86"/>
+      <c r="B19" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="50">
+        <v>43910</v>
+      </c>
+      <c r="F19" s="66">
+        <v>2</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="86"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="50">
+        <v>43905</v>
+      </c>
+      <c r="F20" s="66">
+        <v>1</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="87"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="51">
+        <v>43905</v>
+      </c>
+      <c r="F21" s="67">
+        <v>1</v>
+      </c>
+      <c r="G21" s="88"/>
+      <c r="H21" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="J21" s="71"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="48">
+        <v>43902</v>
+      </c>
+      <c r="F22" s="65">
+        <v>1</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="80"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="50">
+        <v>43902</v>
+      </c>
+      <c r="F23" s="66">
+        <v>1</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J23" s="70"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="80"/>
+      <c r="B24" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="50">
+        <v>43902</v>
+      </c>
+      <c r="F24" s="66">
+        <v>1</v>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="H24" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="80"/>
+      <c r="B25" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F25" s="66">
+        <v>2</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J25" s="70"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="80"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F26" s="66">
+        <v>2</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J26" s="70"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="80"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F27" s="66">
+        <v>1</v>
+      </c>
+      <c r="G27" s="83"/>
+      <c r="H27" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J27" s="70"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="80"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F28" s="66">
+        <v>2</v>
+      </c>
+      <c r="G28" s="83"/>
+      <c r="H28" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J28" s="70"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="80"/>
+      <c r="B29" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="50">
+        <v>43901</v>
+      </c>
+      <c r="F29" s="66">
+        <v>1</v>
+      </c>
+      <c r="G29" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J29" s="70"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="80"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="50">
+        <v>43902</v>
+      </c>
+      <c r="F30" s="66">
+        <v>1</v>
+      </c>
+      <c r="G30" s="83"/>
+      <c r="H30" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J30" s="70"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="80"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="50">
+        <v>43902</v>
+      </c>
+      <c r="F31" s="66">
+        <v>1</v>
+      </c>
+      <c r="G31" s="83"/>
+      <c r="H31" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J31" s="70"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="80"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="50">
+        <v>43902</v>
+      </c>
+      <c r="F32" s="66">
+        <v>1</v>
+      </c>
+      <c r="G32" s="83"/>
+      <c r="H32" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J32" s="70"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F33" s="66">
+        <v>1</v>
+      </c>
+      <c r="G33" s="83"/>
+      <c r="H33" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J33" s="70"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="80"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="50">
+        <v>43903</v>
+      </c>
+      <c r="F34" s="53">
+        <v>1</v>
+      </c>
+      <c r="G34" s="83"/>
+      <c r="H34" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J34" s="70"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="80"/>
+      <c r="B35" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="54">
+        <v>43908</v>
+      </c>
+      <c r="F35" s="53">
+        <v>2</v>
+      </c>
+      <c r="G35" s="83"/>
+      <c r="H35" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J35" s="70"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="80"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="54">
+        <v>43909</v>
+      </c>
+      <c r="F36" s="53">
+        <v>2</v>
+      </c>
+      <c r="G36" s="83"/>
+      <c r="H36" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" s="70"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="80"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="54">
+        <v>43909</v>
+      </c>
+      <c r="F37" s="53">
+        <v>2</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" s="70"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="80"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="54">
+        <v>43909</v>
+      </c>
+      <c r="F38" s="53">
+        <v>2</v>
+      </c>
+      <c r="G38" s="83"/>
+      <c r="H38" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I38" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J38" s="70"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="80"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="54">
+        <v>43910</v>
+      </c>
+      <c r="F39" s="53">
+        <v>2</v>
+      </c>
+      <c r="G39" s="83"/>
+      <c r="H39" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" s="70"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A40" s="81"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="54">
+        <v>43910</v>
+      </c>
+      <c r="F40" s="55">
+        <v>2</v>
+      </c>
+      <c r="G40" s="84"/>
+      <c r="H40" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" s="71"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="56">
+        <v>43901</v>
+      </c>
+      <c r="F41" s="57">
+        <v>1</v>
+      </c>
+      <c r="G41" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="I41" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="F9" s="49">
+      <c r="J41" s="69"/>
+    </row>
+    <row r="42" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="86"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="54">
+        <v>43903</v>
+      </c>
+      <c r="F42" s="53">
+        <v>2</v>
+      </c>
+      <c r="G42" s="85"/>
+      <c r="H42" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J42" s="70"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="80"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="54">
+        <v>43903</v>
+      </c>
+      <c r="F43" s="53">
+        <v>2</v>
+      </c>
+      <c r="G43" s="83"/>
+      <c r="H43" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I43" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" s="70"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="80"/>
+      <c r="B44" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" s="54">
+        <v>43901</v>
+      </c>
+      <c r="F44" s="58">
         <v>1</v>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="49">
+      <c r="G44" s="83"/>
+      <c r="H44" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I44" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" s="70"/>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="80"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="E45" s="54">
+        <v>43903</v>
+      </c>
+      <c r="F45" s="53">
         <v>2</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="49">
+      <c r="G45" s="83"/>
+      <c r="H45" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" s="70"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="80"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="54">
+        <v>43908</v>
+      </c>
+      <c r="F46" s="53">
         <v>2</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>346</v>
-      </c>
-      <c r="F12" s="49">
+      <c r="G46" s="83"/>
+      <c r="H46" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I46" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" s="70"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="80"/>
+      <c r="B47" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="54">
+        <v>43901</v>
+      </c>
+      <c r="F47" s="58">
+        <v>1</v>
+      </c>
+      <c r="G47" s="83"/>
+      <c r="H47" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" s="70"/>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="80"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="54">
+        <v>43908</v>
+      </c>
+      <c r="F48" s="53">
         <v>2</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="F13" s="49">
+      <c r="G48" s="83"/>
+      <c r="H48" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" s="70"/>
+    </row>
+    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="80"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="54">
+        <v>43908</v>
+      </c>
+      <c r="F49" s="53">
+        <v>2</v>
+      </c>
+      <c r="G49" s="83"/>
+      <c r="H49" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" s="70"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="80"/>
+      <c r="B50" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="54">
+        <v>43903</v>
+      </c>
+      <c r="F50" s="53">
+        <v>2</v>
+      </c>
+      <c r="G50" s="83"/>
+      <c r="H50" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" s="70"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A51" s="80"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="54">
+        <v>43908</v>
+      </c>
+      <c r="F51" s="53">
+        <v>3</v>
+      </c>
+      <c r="G51" s="83"/>
+      <c r="H51" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" s="70"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="80"/>
+      <c r="B52" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="54">
+        <v>43903</v>
+      </c>
+      <c r="F52" s="53">
+        <v>3</v>
+      </c>
+      <c r="G52" s="83"/>
+      <c r="H52" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I52" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" s="70"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A53" s="81"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="59">
+        <v>43908</v>
+      </c>
+      <c r="F53" s="55">
+        <v>3</v>
+      </c>
+      <c r="G53" s="84"/>
+      <c r="H53" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="I53" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="J53" s="71"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A54" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" s="63">
+        <v>43899</v>
+      </c>
+      <c r="F54" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="F14" s="49">
-        <v>1</v>
-      </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>349</v>
-      </c>
-      <c r="F15" s="49">
-        <v>2</v>
-      </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="F16" s="49">
-        <v>1</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="56" t="s">
+      <c r="G54" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="H54" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="F17" s="49">
-        <v>1</v>
-      </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>342</v>
-      </c>
-      <c r="F18" s="49">
-        <v>1</v>
-      </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="1:10" s="48" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="95" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="F19" s="49">
-        <v>2</v>
-      </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="F20" s="49">
-        <v>1</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="93"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" s="46">
-        <v>1</v>
-      </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="52">
-        <v>43902</v>
-      </c>
-      <c r="F22" s="50">
-        <v>1</v>
-      </c>
-      <c r="G22" s="88" t="s">
-        <v>295</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="56">
-        <v>43902</v>
-      </c>
-      <c r="F23" s="49">
-        <v>1</v>
-      </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="56">
-        <v>43902</v>
-      </c>
-      <c r="F24" s="49">
-        <v>1</v>
-      </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="56">
-        <v>43903</v>
-      </c>
-      <c r="F25" s="49">
-        <v>2</v>
-      </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="86"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="56">
-        <v>43903</v>
-      </c>
-      <c r="F26" s="49">
-        <v>2</v>
-      </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-    </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="86"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>332</v>
-      </c>
-      <c r="E27" s="56">
-        <v>43903</v>
-      </c>
-      <c r="F27" s="49">
-        <v>1</v>
-      </c>
-      <c r="G27" s="89"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="56">
-        <v>43903</v>
-      </c>
-      <c r="F28" s="49">
-        <v>2</v>
-      </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="86"/>
-      <c r="B29" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="56">
-        <v>43901</v>
-      </c>
-      <c r="F29" s="49">
-        <v>1</v>
-      </c>
-      <c r="G29" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="86"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="56">
-        <v>43902</v>
-      </c>
-      <c r="F30" s="49">
-        <v>1</v>
-      </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
-    </row>
-    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="86"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="E31" s="56">
-        <v>43902</v>
-      </c>
-      <c r="F31" s="49">
-        <v>1</v>
-      </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="86"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="E32" s="56">
-        <v>43902</v>
-      </c>
-      <c r="F32" s="49">
-        <v>1</v>
-      </c>
-      <c r="G32" s="89"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="86"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="56">
-        <v>43903</v>
-      </c>
-      <c r="F33" s="49">
-        <v>1</v>
-      </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="56">
-        <v>43903</v>
-      </c>
-      <c r="F34" s="65">
-        <v>1</v>
-      </c>
-      <c r="G34" s="89"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="86"/>
-      <c r="B35" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="66">
-        <v>43908</v>
-      </c>
-      <c r="F35" s="65">
-        <v>2</v>
-      </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="86"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="66">
-        <v>43909</v>
-      </c>
-      <c r="F36" s="65">
-        <v>2</v>
-      </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="86"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="E37" s="66">
-        <v>43909</v>
-      </c>
-      <c r="F37" s="65">
-        <v>2</v>
-      </c>
-      <c r="G37" s="89"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="86"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="66">
-        <v>43909</v>
-      </c>
-      <c r="F38" s="65">
-        <v>2</v>
-      </c>
-      <c r="G38" s="89"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="86"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="66">
-        <v>43910</v>
-      </c>
-      <c r="F39" s="65">
-        <v>2</v>
-      </c>
-      <c r="G39" s="89"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="66">
-        <v>43910</v>
-      </c>
-      <c r="F40" s="67">
-        <v>2</v>
-      </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="68">
-        <v>43901</v>
-      </c>
-      <c r="F41" s="69">
-        <v>1</v>
-      </c>
-      <c r="G41" s="88" t="s">
-        <v>309</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
-    </row>
-    <row r="42" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="E42" s="66">
-        <v>43903</v>
-      </c>
-      <c r="F42" s="65">
-        <v>2</v>
-      </c>
-      <c r="G42" s="91"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
-    </row>
-    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="86"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="66">
-        <v>43903</v>
-      </c>
-      <c r="F43" s="65">
-        <v>2</v>
-      </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="86"/>
-      <c r="B44" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="E44" s="66">
-        <v>43901</v>
-      </c>
-      <c r="F44" s="70">
-        <v>1</v>
-      </c>
-      <c r="G44" s="89"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="86"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="E45" s="66">
-        <v>43903</v>
-      </c>
-      <c r="F45" s="65">
-        <v>2</v>
-      </c>
-      <c r="G45" s="89"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="86"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="E46" s="66">
-        <v>43908</v>
-      </c>
-      <c r="F46" s="65">
-        <v>2</v>
-      </c>
-      <c r="G46" s="89"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="86"/>
-      <c r="B47" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="66">
-        <v>43901</v>
-      </c>
-      <c r="F47" s="70">
-        <v>1</v>
-      </c>
-      <c r="G47" s="89"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="58"/>
-    </row>
-    <row r="48" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="86"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="E48" s="66">
-        <v>43908</v>
-      </c>
-      <c r="F48" s="65">
-        <v>2</v>
-      </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="86"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="66">
-        <v>43908</v>
-      </c>
-      <c r="F49" s="65">
-        <v>2</v>
-      </c>
-      <c r="G49" s="89"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="58"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="86"/>
-      <c r="B50" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="66">
-        <v>43903</v>
-      </c>
-      <c r="F50" s="65">
-        <v>2</v>
-      </c>
-      <c r="G50" s="89"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="58"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="86"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="66">
-        <v>43908</v>
-      </c>
-      <c r="F51" s="65">
-        <v>3</v>
-      </c>
-      <c r="G51" s="89"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="58"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="86"/>
-      <c r="B52" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="66">
-        <v>43903</v>
-      </c>
-      <c r="F52" s="65">
-        <v>3</v>
-      </c>
-      <c r="G52" s="89"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="58"/>
-    </row>
-    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="71">
-        <v>43908</v>
-      </c>
-      <c r="F53" s="67">
-        <v>3</v>
-      </c>
-      <c r="G53" s="90"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="61"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A54" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="B54" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="D54" s="74" t="s">
-        <v>313</v>
-      </c>
-      <c r="E54" s="75">
-        <v>43899</v>
-      </c>
-      <c r="F54" s="76">
-        <v>1</v>
-      </c>
-      <c r="G54" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="77"/>
+      <c r="I54" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" s="64"/>
       <c r="K54" s="39"/>
       <c r="L54" s="39"/>
     </row>

--- a/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
+++ b/WebContent/발표자료/1차/3조 4번 프로젝트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="348">
   <si>
     <t>구분</t>
   </si>
@@ -1160,6 +1160,17 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행도</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>완</t>
+  </si>
+  <si>
+    <t>완</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1275,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,8 +1288,14 @@
         <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1581,11 +1598,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1780,6 +1810,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,19 +1850,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1837,13 +1874,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1870,6 +1934,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10229850" y="1524000"/>
+          <a:ext cx="971550" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2123,10 +2240,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2140,8 +2257,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2153,8 +2270,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2166,8 +2283,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="73"/>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2181,8 +2298,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2194,7 +2311,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2211,8 +2328,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="73"/>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2226,8 +2343,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2239,8 +2356,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="73"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2254,8 +2371,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2267,8 +2384,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2280,8 +2397,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2293,8 +2410,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="73"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2308,8 +2425,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2321,8 +2438,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2334,8 +2451,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2349,8 +2466,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -2362,8 +2479,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="73"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2377,8 +2494,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -2390,8 +2507,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -2403,7 +2520,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="76" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2420,7 +2537,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="73"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -2435,8 +2552,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="73"/>
-      <c r="B24" s="72" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2450,8 +2567,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -2463,8 +2580,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -2476,8 +2593,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="73"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2491,8 +2608,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -2504,8 +2621,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -2517,8 +2634,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2530,8 +2647,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -2543,8 +2660,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -2553,8 +2670,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="73"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="76" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2565,8 +2682,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -2575,8 +2692,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -2585,8 +2702,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -2595,8 +2712,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -2605,8 +2722,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -2615,10 +2732,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="76" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2629,8 +2746,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -2639,8 +2756,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="73"/>
-      <c r="B41" s="72" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2651,8 +2768,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -2661,8 +2778,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="73"/>
-      <c r="B43" s="72" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="76" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -2673,8 +2790,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -2683,8 +2800,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="73"/>
-      <c r="B45" s="72" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="76" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2695,8 +2812,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -2705,8 +2822,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="73"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="76" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2717,8 +2834,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -2727,8 +2844,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -2737,8 +2854,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -2748,6 +2865,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -2758,15 +2884,6 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2836,7 +2953,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="74"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -2852,7 +2969,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="73"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -3407,10 +3524,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -3442,8 +3559,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -3473,8 +3590,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -3504,7 +3621,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="73"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -3537,10 +3654,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="79" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -3572,8 +3689,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -3603,8 +3720,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -3634,8 +3751,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -3665,8 +3782,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="79" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -3698,8 +3815,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -3729,8 +3846,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -3760,8 +3877,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -3791,7 +3908,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="73"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -3824,10 +3941,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="79" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -3859,8 +3976,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -3890,8 +4007,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -3921,8 +4038,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -3952,7 +4069,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="73"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -3985,7 +4102,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="73"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -4018,7 +4135,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="79" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4053,7 +4170,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="73"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -4086,7 +4203,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="79" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -4121,8 +4238,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="73"/>
-      <c r="B24" s="75" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="79" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -4154,8 +4271,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -4185,8 +4302,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -4216,10 +4333,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="79" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -4251,8 +4368,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -4282,8 +4399,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="79" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -4315,8 +4432,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -4346,8 +4463,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="79" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -4379,8 +4496,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -30520,6 +30637,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -30527,13 +30651,6 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -30606,10 +30723,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -30626,8 +30743,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -30642,8 +30759,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -30658,8 +30775,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="77"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -30676,8 +30793,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -30692,10 +30809,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="80" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -30712,8 +30829,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -30728,8 +30845,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -30744,8 +30861,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="77"/>
-      <c r="B12" s="76" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="80" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -30762,8 +30879,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -30778,8 +30895,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -30794,8 +30911,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="77"/>
-      <c r="B15" s="76" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -30812,8 +30929,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -30828,8 +30945,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -30844,8 +30961,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="77"/>
-      <c r="B18" s="76" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="80" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -30862,8 +30979,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -30878,8 +30995,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -30894,8 +31011,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -30910,10 +31027,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="80" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -30930,8 +31047,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -30946,8 +31063,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -30962,8 +31079,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -30978,10 +31095,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="80" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -30998,8 +31115,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -31014,8 +31131,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="77"/>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="80" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -31030,8 +31147,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -31044,8 +31161,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -31058,8 +31175,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -31072,8 +31189,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -31088,7 +31205,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="77"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -31106,7 +31223,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="78"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -31139,11 +31256,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -31152,6 +31264,11 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31213,10 +31330,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -31227,13 +31344,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="76" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -31242,11 +31359,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="73"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -31255,11 +31372,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="73"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="73"/>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -31270,11 +31387,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="73"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -31283,11 +31400,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="73"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -31296,13 +31413,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="73"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -31313,13 +31430,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="76" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -31328,11 +31445,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="73"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -31341,11 +31458,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="73"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -31354,11 +31471,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="73"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -31369,11 +31486,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="73"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -31382,11 +31499,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="73"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -31395,11 +31512,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="73"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -31408,11 +31525,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="73"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -31421,11 +31538,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="73"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -31436,11 +31553,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="73"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -31449,11 +31566,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="73"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -31462,11 +31579,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="73"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -31477,11 +31594,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="73"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -31490,11 +31607,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="73"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -31503,20 +31620,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="73"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="72"/>
+      <c r="A23" s="76"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="76" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -31527,13 +31644,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="76" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -31542,10 +31659,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="73"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="73"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -31557,11 +31674,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="73"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="73"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -31572,11 +31689,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="73"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -31585,11 +31702,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="73"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -31598,11 +31715,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="73"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="73"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -31613,13 +31730,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="76" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -31628,11 +31745,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="73"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -31641,11 +31758,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="73"/>
+      <c r="G32" s="77"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -31654,11 +31771,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="73"/>
+      <c r="G33" s="77"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -31667,22 +31784,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="73"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="73"/>
+      <c r="G35" s="77"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="73"/>
-      <c r="B36" s="72" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="76" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -31691,68 +31808,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="73"/>
+      <c r="G36" s="77"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="73"/>
+      <c r="G37" s="77"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="73"/>
+      <c r="G38" s="77"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="73"/>
+      <c r="G39" s="77"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="73"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="73"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="76" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -31761,24 +31878,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="76" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="73"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="73"/>
-      <c r="B44" s="72" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -31787,22 +31904,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="73"/>
+      <c r="G44" s="77"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="77"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="73"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="73"/>
-      <c r="B46" s="72" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="76" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -31811,22 +31928,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="73"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="73"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="73"/>
-      <c r="B48" s="72" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="76" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -31835,22 +31952,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="73"/>
+      <c r="G48" s="77"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="73"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="73"/>
-      <c r="B50" s="72" t="s">
+      <c r="A50" s="77"/>
+      <c r="B50" s="76" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -31859,18 +31976,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="73"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="73"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -31898,15 +32015,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -31917,11 +32030,15 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31934,10 +32051,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31946,50 +32063,55 @@
     <col min="2" max="2" width="17.85546875" style="41" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="41" customWidth="1"/>
     <col min="4" max="4" width="72.42578125" style="41" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="41"/>
-    <col min="8" max="9" width="10.7109375" style="41" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="41"/>
+    <col min="5" max="5" width="12.7109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="72" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="41"/>
+    <col min="9" max="10" width="10.7109375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:11" s="44" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="H1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="I1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="J1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="K1" s="75" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="65" t="s">
@@ -32001,23 +32123,24 @@
       <c r="E2" s="48">
         <v>43900</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="48"/>
+      <c r="G2" s="65">
         <v>1</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="H2" s="100" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="I2" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="J2" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="J2" s="69"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="83"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="66" t="s">
         <v>13</v>
       </c>
@@ -32027,21 +32150,22 @@
       <c r="E3" s="50">
         <v>43900</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="50"/>
+      <c r="G3" s="66">
         <v>1</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H3" s="101"/>
       <c r="I3" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J3" s="70"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
+      <c r="J3" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="66" t="s">
         <v>15</v>
       </c>
@@ -32051,21 +32175,22 @@
       <c r="E4" s="50">
         <v>43900</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="50"/>
+      <c r="G4" s="66">
         <v>1</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H4" s="101"/>
       <c r="I4" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J4" s="70"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="85" t="s">
+      <c r="J4" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="70"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="84"/>
+      <c r="B5" s="88" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="66" t="s">
@@ -32077,21 +32202,22 @@
       <c r="E5" s="50">
         <v>43901</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="50"/>
+      <c r="G5" s="66">
         <v>1</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H5" s="101"/>
       <c r="I5" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J5" s="70"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="83"/>
+      <c r="J5" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" s="70"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="66" t="s">
         <v>229</v>
       </c>
@@ -32101,21 +32227,22 @@
       <c r="E6" s="50">
         <v>43901</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="50"/>
+      <c r="G6" s="66">
         <v>1</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H6" s="101"/>
       <c r="I6" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J6" s="70"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="84"/>
+      <c r="J6" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="67" t="s">
         <v>17</v>
       </c>
@@ -32125,23 +32252,24 @@
       <c r="E7" s="51">
         <v>43901</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="51"/>
+      <c r="G7" s="67">
         <v>1</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="55" t="s">
-        <v>340</v>
-      </c>
+      <c r="H7" s="102"/>
       <c r="I7" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="J7" s="71"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="79" t="s">
+      <c r="J7" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="71"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="86" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -32153,23 +32281,24 @@
       <c r="E8" s="48">
         <v>43900</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="48"/>
+      <c r="G8" s="65">
         <v>1</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="H8" s="99" t="s">
         <v>297</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>340</v>
       </c>
       <c r="I8" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="J8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="83"/>
+      <c r="J8" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" s="69"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="90"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="66" t="s">
         <v>47</v>
       </c>
@@ -32179,21 +32308,24 @@
       <c r="E9" s="50">
         <v>43901</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="50"/>
+      <c r="G9" s="66">
         <v>1</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="53" t="s">
-        <v>340</v>
+      <c r="H9" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="83"/>
+      <c r="J9" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K9" s="70"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="66" t="s">
         <v>26</v>
       </c>
@@ -32203,21 +32335,24 @@
       <c r="E10" s="50">
         <v>43907</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="50"/>
+      <c r="G10" s="66">
         <v>2</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="53" t="s">
-        <v>340</v>
+      <c r="H10" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="83"/>
+      <c r="J10" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K10" s="70"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="90"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="66" t="s">
         <v>28</v>
       </c>
@@ -32227,21 +32362,24 @@
       <c r="E11" s="50">
         <v>43908</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="50"/>
+      <c r="G11" s="66">
         <v>2</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="53" t="s">
-        <v>340</v>
+      <c r="H11" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J11" s="70"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="89" t="s">
+      <c r="J11" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K11" s="70"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="90"/>
+      <c r="B12" s="92" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="66" t="s">
@@ -32253,21 +32391,24 @@
       <c r="E12" s="50">
         <v>43910</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="50"/>
+      <c r="G12" s="66">
         <v>2</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="53" t="s">
-        <v>340</v>
+      <c r="H12" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I12" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J12" s="70"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="90"/>
+      <c r="J12" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="70"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="66" t="s">
         <v>35</v>
       </c>
@@ -32277,21 +32418,24 @@
       <c r="E13" s="50">
         <v>43903</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="50"/>
+      <c r="G13" s="66">
         <v>1</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="53" t="s">
-        <v>340</v>
+      <c r="H13" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="90"/>
+      <c r="J13" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K13" s="70"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="90"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="66" t="s">
         <v>320</v>
       </c>
@@ -32301,21 +32445,24 @@
       <c r="E14" s="50">
         <v>43903</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="50"/>
+      <c r="G14" s="66">
         <v>1</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="53" t="s">
-        <v>340</v>
+      <c r="H14" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I14" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="92"/>
+      <c r="J14" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="90"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="66" t="s">
         <v>300</v>
       </c>
@@ -32325,21 +32472,24 @@
       <c r="E15" s="50">
         <v>43907</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="50"/>
+      <c r="G15" s="66">
         <v>2</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="53" t="s">
-        <v>340</v>
+      <c r="H15" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="85" t="s">
+      <c r="J15" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="90"/>
+      <c r="B16" s="88" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="66" t="s">
@@ -32351,21 +32501,24 @@
       <c r="E16" s="50">
         <v>43902</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="50"/>
+      <c r="G16" s="66">
         <v>1</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="53" t="s">
-        <v>340</v>
+      <c r="H16" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I16" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="83"/>
+      <c r="J16" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="90"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="66" t="s">
         <v>42</v>
       </c>
@@ -32375,21 +32528,24 @@
       <c r="E17" s="50">
         <v>43900</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="50"/>
+      <c r="G17" s="66">
         <v>1</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="53" t="s">
-        <v>340</v>
+      <c r="H17" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I17" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J17" s="70"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="83"/>
+      <c r="J17" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K17" s="70"/>
+    </row>
+    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="90"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="66" t="s">
         <v>44</v>
       </c>
@@ -32399,21 +32555,24 @@
       <c r="E18" s="50">
         <v>43902</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="50"/>
+      <c r="G18" s="66">
         <v>1</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="53" t="s">
-        <v>340</v>
+      <c r="H18" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I18" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J18" s="70"/>
-    </row>
-    <row r="19" spans="1:10" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="89" t="s">
+      <c r="J18" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="70"/>
+    </row>
+    <row r="19" spans="1:11" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92" t="s">
         <v>315</v>
       </c>
       <c r="C19" s="66" t="s">
@@ -32425,21 +32584,24 @@
       <c r="E19" s="50">
         <v>43910</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="50"/>
+      <c r="G19" s="66">
         <v>2</v>
       </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="J19" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="J19" s="70"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="90"/>
+      <c r="K19" s="70"/>
+    </row>
+    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="90"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="66" t="s">
         <v>329</v>
       </c>
@@ -32449,21 +32611,24 @@
       <c r="E20" s="50">
         <v>43905</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="50"/>
+      <c r="G20" s="66">
         <v>1</v>
       </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="53" t="s">
-        <v>340</v>
+      <c r="H20" s="103" t="s">
+        <v>297</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J20" s="70"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="87"/>
-      <c r="B21" s="91"/>
+      <c r="J20" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K20" s="70"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="91"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="67" t="s">
         <v>316</v>
       </c>
@@ -32473,23 +32638,26 @@
       <c r="E21" s="51">
         <v>43905</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="51"/>
+      <c r="G21" s="67">
         <v>1</v>
       </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="55" t="s">
-        <v>340</v>
+      <c r="H21" s="104" t="s">
+        <v>297</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="J21" s="71"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="79" t="s">
+      <c r="J21" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="K21" s="71"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="86" t="s">
         <v>302</v>
       </c>
       <c r="C22" s="65" t="s">
@@ -32501,23 +32669,24 @@
       <c r="E22" s="48">
         <v>43902</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="48"/>
+      <c r="G22" s="65">
         <v>1</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="H22" s="96" t="s">
         <v>295</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>340</v>
       </c>
       <c r="I22" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="J22" s="69"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="83"/>
+      <c r="J22" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="K22" s="69"/>
+    </row>
+    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="84"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="66" t="s">
         <v>60</v>
       </c>
@@ -32527,20 +32696,21 @@
       <c r="E23" s="50">
         <v>43902</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="50"/>
+      <c r="G23" s="66">
         <v>1</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H23" s="97"/>
       <c r="I23" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J23" s="70"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="80"/>
+      <c r="J23" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K23" s="70"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="84"/>
       <c r="B24" s="66" t="s">
         <v>62</v>
       </c>
@@ -32553,21 +32723,22 @@
       <c r="E24" s="50">
         <v>43902</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="50"/>
+      <c r="G24" s="66">
         <v>1</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H24" s="97"/>
       <c r="I24" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J24" s="70"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="85" t="s">
+      <c r="J24" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="70"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="84"/>
+      <c r="B25" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="66" t="s">
@@ -32579,21 +32750,22 @@
       <c r="E25" s="50">
         <v>43903</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="50"/>
+      <c r="G25" s="66">
         <v>2</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H25" s="97"/>
       <c r="I25" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J25" s="70"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="83"/>
+      <c r="J25" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K25" s="70"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="84"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="66" t="s">
         <v>68</v>
       </c>
@@ -32603,21 +32775,22 @@
       <c r="E26" s="50">
         <v>43903</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="50"/>
+      <c r="G26" s="66">
         <v>2</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H26" s="97"/>
       <c r="I26" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J26" s="70"/>
-    </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="83"/>
+      <c r="J26" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K26" s="70"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="84"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="66" t="s">
         <v>331</v>
       </c>
@@ -32627,21 +32800,22 @@
       <c r="E27" s="50">
         <v>43903</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="50"/>
+      <c r="G27" s="66">
         <v>1</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H27" s="97"/>
       <c r="I27" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J27" s="70"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="83"/>
+      <c r="J27" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K27" s="70"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="84"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="66" t="s">
         <v>70</v>
       </c>
@@ -32651,21 +32825,22 @@
       <c r="E28" s="50">
         <v>43903</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="50"/>
+      <c r="G28" s="66">
         <v>2</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H28" s="97"/>
       <c r="I28" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J28" s="70"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="85" t="s">
+      <c r="J28" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" s="70"/>
+    </row>
+    <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="84"/>
+      <c r="B29" s="88" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="66" t="s">
@@ -32677,23 +32852,24 @@
       <c r="E29" s="50">
         <v>43901</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="50"/>
+      <c r="G29" s="66">
         <v>1</v>
       </c>
-      <c r="G29" s="85" t="s">
+      <c r="H29" s="105" t="s">
         <v>305</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>340</v>
       </c>
       <c r="I29" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J29" s="70"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="83"/>
+      <c r="J29" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="84"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="66" t="s">
         <v>77</v>
       </c>
@@ -32703,21 +32879,22 @@
       <c r="E30" s="50">
         <v>43902</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="50"/>
+      <c r="G30" s="66">
         <v>1</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H30" s="97"/>
       <c r="I30" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J30" s="70"/>
-    </row>
-    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="80"/>
-      <c r="B31" s="83"/>
+      <c r="J30" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" s="70"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="84"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="66" t="s">
         <v>306</v>
       </c>
@@ -32727,21 +32904,22 @@
       <c r="E31" s="50">
         <v>43902</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="50"/>
+      <c r="G31" s="66">
         <v>1</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H31" s="97"/>
       <c r="I31" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J31" s="70"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="83"/>
+      <c r="J31" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K31" s="70"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="84"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="66" t="s">
         <v>322</v>
       </c>
@@ -32751,21 +32929,22 @@
       <c r="E32" s="50">
         <v>43902</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="50"/>
+      <c r="G32" s="66">
         <v>1</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H32" s="97"/>
       <c r="I32" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J32" s="70"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="83"/>
+      <c r="J32" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K32" s="70"/>
+    </row>
+    <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="84"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="66" t="s">
         <v>81</v>
       </c>
@@ -32775,21 +32954,22 @@
       <c r="E33" s="50">
         <v>43903</v>
       </c>
-      <c r="F33" s="66">
+      <c r="F33" s="50"/>
+      <c r="G33" s="66">
         <v>1</v>
       </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H33" s="97"/>
       <c r="I33" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J33" s="70"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="83"/>
+      <c r="J33" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K33" s="70"/>
+    </row>
+    <row r="34" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="84"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="66" t="s">
         <v>83</v>
       </c>
@@ -32799,21 +32979,22 @@
       <c r="E34" s="50">
         <v>43903</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="50"/>
+      <c r="G34" s="53">
         <v>1</v>
       </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H34" s="97"/>
       <c r="I34" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J34" s="70"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="85" t="s">
+      <c r="J34" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K34" s="70"/>
+    </row>
+    <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="84"/>
+      <c r="B35" s="88" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="66" t="s">
@@ -32825,21 +33006,22 @@
       <c r="E35" s="54">
         <v>43908</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="54"/>
+      <c r="G35" s="53">
         <v>2</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H35" s="97"/>
       <c r="I35" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J35" s="70"/>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="83"/>
+      <c r="J35" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K35" s="70"/>
+    </row>
+    <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="84"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="66" t="s">
         <v>90</v>
       </c>
@@ -32849,21 +33031,22 @@
       <c r="E36" s="54">
         <v>43909</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="54"/>
+      <c r="G36" s="53">
         <v>2</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H36" s="97"/>
       <c r="I36" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J36" s="70"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="83"/>
+      <c r="J36" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" s="70"/>
+    </row>
+    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="84"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="66" t="s">
         <v>175</v>
       </c>
@@ -32873,21 +33056,22 @@
       <c r="E37" s="54">
         <v>43909</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="54"/>
+      <c r="G37" s="53">
         <v>2</v>
       </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H37" s="97"/>
       <c r="I37" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J37" s="70"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="83"/>
+      <c r="J37" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" s="70"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="84"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="66" t="s">
         <v>92</v>
       </c>
@@ -32897,21 +33081,22 @@
       <c r="E38" s="54">
         <v>43909</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="54"/>
+      <c r="G38" s="53">
         <v>2</v>
       </c>
-      <c r="G38" s="83"/>
-      <c r="H38" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H38" s="97"/>
       <c r="I38" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J38" s="70"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="83"/>
+      <c r="J38" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" s="70"/>
+    </row>
+    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="84"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="66" t="s">
         <v>81</v>
       </c>
@@ -32921,21 +33106,22 @@
       <c r="E39" s="54">
         <v>43910</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F39" s="54"/>
+      <c r="G39" s="53">
         <v>2</v>
       </c>
-      <c r="G39" s="83"/>
-      <c r="H39" s="53" t="s">
-        <v>340</v>
-      </c>
+      <c r="H39" s="97"/>
       <c r="I39" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="J39" s="70"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="81"/>
-      <c r="B40" s="84"/>
+      <c r="J39" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K39" s="70"/>
+    </row>
+    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A40" s="85"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="67" t="s">
         <v>83</v>
       </c>
@@ -32945,23 +33131,24 @@
       <c r="E40" s="54">
         <v>43910</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="107"/>
+      <c r="G40" s="55">
         <v>2</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="55" t="s">
-        <v>340</v>
-      </c>
+      <c r="H40" s="98"/>
       <c r="I40" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="J40" s="71"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="79" t="s">
+      <c r="J40" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" s="71"/>
+    </row>
+    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="86" t="s">
         <v>97</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -32973,23 +33160,26 @@
       <c r="E41" s="56">
         <v>43901</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" s="57">
         <v>1</v>
       </c>
-      <c r="G41" s="82" t="s">
+      <c r="H41" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="H41" s="68" t="s">
+      <c r="I41" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="I41" s="68" t="s">
+      <c r="J41" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="J41" s="69"/>
-    </row>
-    <row r="42" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="86"/>
-      <c r="B42" s="85"/>
+      <c r="K41" s="69"/>
+    </row>
+    <row r="42" spans="1:11" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="90"/>
+      <c r="B42" s="88"/>
       <c r="C42" s="66" t="s">
         <v>324</v>
       </c>
@@ -32999,21 +33189,22 @@
       <c r="E42" s="54">
         <v>43903</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="54"/>
+      <c r="G42" s="53">
         <v>2</v>
       </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="105"/>
+      <c r="I42" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I42" s="53" t="s">
+      <c r="J42" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J42" s="70"/>
-    </row>
-    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="83"/>
+      <c r="K42" s="70"/>
+    </row>
+    <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="66" t="s">
         <v>100</v>
       </c>
@@ -33023,21 +33214,22 @@
       <c r="E43" s="54">
         <v>43903</v>
       </c>
-      <c r="F43" s="53">
+      <c r="F43" s="54"/>
+      <c r="G43" s="53">
         <v>2</v>
       </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="97"/>
+      <c r="I43" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="J43" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J43" s="70"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="85" t="s">
+      <c r="K43" s="70"/>
+    </row>
+    <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="88" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="66" t="s">
@@ -33049,21 +33241,24 @@
       <c r="E44" s="54">
         <v>43901</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G44" s="58">
         <v>1</v>
       </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="53" t="s">
+      <c r="H44" s="97"/>
+      <c r="I44" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I44" s="53" t="s">
+      <c r="J44" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J44" s="70"/>
-    </row>
-    <row r="45" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="80"/>
-      <c r="B45" s="85"/>
+      <c r="K44" s="70"/>
+    </row>
+    <row r="45" spans="1:11" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="66" t="s">
         <v>335</v>
       </c>
@@ -33073,21 +33268,22 @@
       <c r="E45" s="54">
         <v>43903</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="54"/>
+      <c r="G45" s="53">
         <v>2</v>
       </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="97"/>
+      <c r="I45" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I45" s="53" t="s">
+      <c r="J45" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J45" s="70"/>
-    </row>
-    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="80"/>
-      <c r="B46" s="83"/>
+      <c r="K45" s="70"/>
+    </row>
+    <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="84"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="66" t="s">
         <v>337</v>
       </c>
@@ -33097,21 +33293,22 @@
       <c r="E46" s="54">
         <v>43908</v>
       </c>
-      <c r="F46" s="53">
+      <c r="F46" s="54"/>
+      <c r="G46" s="53">
         <v>2</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="97"/>
+      <c r="I46" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I46" s="53" t="s">
+      <c r="J46" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J46" s="70"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="80"/>
-      <c r="B47" s="85" t="s">
+      <c r="K46" s="70"/>
+    </row>
+    <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="84"/>
+      <c r="B47" s="88" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="66" t="s">
@@ -33123,21 +33320,24 @@
       <c r="E47" s="54">
         <v>43901</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" s="58">
         <v>1</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="97"/>
+      <c r="I47" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I47" s="53" t="s">
+      <c r="J47" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J47" s="70"/>
-    </row>
-    <row r="48" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="80"/>
-      <c r="B48" s="85"/>
+      <c r="K47" s="70"/>
+    </row>
+    <row r="48" spans="1:11" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="84"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="66" t="s">
         <v>338</v>
       </c>
@@ -33147,21 +33347,22 @@
       <c r="E48" s="54">
         <v>43908</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="54"/>
+      <c r="G48" s="53">
         <v>2</v>
       </c>
-      <c r="G48" s="83"/>
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="97"/>
+      <c r="I48" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="J48" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J48" s="70"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="80"/>
-      <c r="B49" s="83"/>
+      <c r="K48" s="70"/>
+    </row>
+    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="84"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="66" t="s">
         <v>110</v>
       </c>
@@ -33171,21 +33372,22 @@
       <c r="E49" s="54">
         <v>43908</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="54"/>
+      <c r="G49" s="53">
         <v>2</v>
       </c>
-      <c r="G49" s="83"/>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="97"/>
+      <c r="I49" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I49" s="53" t="s">
+      <c r="J49" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J49" s="70"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="80"/>
-      <c r="B50" s="85" t="s">
+      <c r="K49" s="70"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="84"/>
+      <c r="B50" s="88" t="s">
         <v>235</v>
       </c>
       <c r="C50" s="66" t="s">
@@ -33197,21 +33399,24 @@
       <c r="E50" s="54">
         <v>43903</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" s="53">
         <v>2</v>
       </c>
-      <c r="G50" s="83"/>
-      <c r="H50" s="53" t="s">
+      <c r="H50" s="97"/>
+      <c r="I50" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I50" s="53" t="s">
+      <c r="J50" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J50" s="70"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="80"/>
-      <c r="B51" s="83"/>
+      <c r="K50" s="70"/>
+    </row>
+    <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A51" s="84"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="66" t="s">
         <v>120</v>
       </c>
@@ -33221,21 +33426,22 @@
       <c r="E51" s="54">
         <v>43908</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F51" s="54"/>
+      <c r="G51" s="53">
         <v>3</v>
       </c>
-      <c r="G51" s="83"/>
-      <c r="H51" s="53" t="s">
+      <c r="H51" s="97"/>
+      <c r="I51" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I51" s="53" t="s">
+      <c r="J51" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J51" s="70"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="80"/>
-      <c r="B52" s="85" t="s">
+      <c r="K51" s="70"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="88" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="66" t="s">
@@ -33247,21 +33453,24 @@
       <c r="E52" s="54">
         <v>43903</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F52" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" s="53">
         <v>3</v>
       </c>
-      <c r="G52" s="83"/>
-      <c r="H52" s="53" t="s">
+      <c r="H52" s="97"/>
+      <c r="I52" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="I52" s="53" t="s">
+      <c r="J52" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="J52" s="70"/>
-    </row>
-    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A53" s="81"/>
-      <c r="B53" s="84"/>
+      <c r="K52" s="70"/>
+    </row>
+    <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A53" s="85"/>
+      <c r="B53" s="89"/>
       <c r="C53" s="67" t="s">
         <v>124</v>
       </c>
@@ -33271,19 +33480,20 @@
       <c r="E53" s="59">
         <v>43908</v>
       </c>
-      <c r="F53" s="55">
+      <c r="F53" s="59"/>
+      <c r="G53" s="55">
         <v>3</v>
       </c>
-      <c r="G53" s="84"/>
-      <c r="H53" s="55" t="s">
+      <c r="H53" s="98"/>
+      <c r="I53" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="I53" s="55" t="s">
+      <c r="J53" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="J53" s="71"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="K53" s="71"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A54" s="60" t="s">
         <v>311</v>
       </c>
@@ -33299,51 +33509,52 @@
       <c r="E54" s="63">
         <v>43899</v>
       </c>
-      <c r="F54" s="61">
+      <c r="F54" s="63"/>
+      <c r="G54" s="61">
         <v>1</v>
       </c>
-      <c r="G54" s="61" t="s">
+      <c r="H54" s="106" t="s">
         <v>295</v>
-      </c>
-      <c r="H54" s="61" t="s">
-        <v>340</v>
       </c>
       <c r="I54" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="J54" s="64"/>
-      <c r="K54" s="39"/>
+      <c r="J54" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="K54" s="64"/>
       <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A22:A40"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="G29:G40"/>
-    <mergeCell ref="B35:B40"/>
+  <mergeCells count="23">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A41:A53"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="G41:G53"/>
+    <mergeCell ref="H41:H53"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G8:G21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A22:A40"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="H29:H40"/>
+    <mergeCell ref="B35:B40"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>